--- a/sheets/consolidated.xlsx
+++ b/sheets/consolidated.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="568">
   <si>
     <t>Implementing agency</t>
   </si>
@@ -339,6 +339,1389 @@
   </si>
   <si>
     <t>NFISleeping Mats327327</t>
+  </si>
+  <si>
+    <t>Contact Name</t>
+  </si>
+  <si>
+    <t>Contact Email</t>
+  </si>
+  <si>
+    <t>Contact Phone Number</t>
+  </si>
+  <si>
+    <t>Training Subject</t>
+  </si>
+  <si>
+    <t>Audience</t>
+  </si>
+  <si>
+    <t>Training Title</t>
+  </si>
+  <si>
+    <t>Demonstration Construction Included?</t>
+  </si>
+  <si>
+    <t>IEC Materials Distributed</t>
+  </si>
+  <si>
+    <t>Duration of each session (hours)</t>
+  </si>
+  <si>
+    <t>Amount Paid to Participants (NPR per participant)</t>
+  </si>
+  <si>
+    <t>Total Cost Per Training</t>
+  </si>
+  <si>
+    <t>Total Participants (Individuals)</t>
+  </si>
+  <si>
+    <t>Males</t>
+  </si>
+  <si>
+    <t>Females</t>
+  </si>
+  <si>
+    <t>Third Gender</t>
+  </si>
+  <si>
+    <t>Elderly (60+)</t>
+  </si>
+  <si>
+    <t>Children (under 18)</t>
+  </si>
+  <si>
+    <t>Persons with Disabilities</t>
+  </si>
+  <si>
+    <t>Vulnerable Caste or Ethnicity</t>
+  </si>
+  <si>
+    <t>Female Headed Households (if applicable)</t>
+  </si>
+  <si>
+    <t>Start date 
+(Actual or Planned)</t>
+  </si>
+  <si>
+    <t>Completion Date
+ (Actual or Planned)</t>
+  </si>
+  <si>
+    <t>ADRA</t>
+  </si>
+  <si>
+    <t>Japan Platform</t>
+  </si>
+  <si>
+    <t>Nepal Red Cross</t>
+  </si>
+  <si>
+    <t>Mai Ogawa</t>
+  </si>
+  <si>
+    <t>mai.ogawa@adrajpn.org</t>
+  </si>
+  <si>
+    <t>9813937410</t>
+  </si>
+  <si>
+    <t>Briddim</t>
+  </si>
+  <si>
+    <t>Permanent Reconstruction</t>
+  </si>
+  <si>
+    <t>Individual Households</t>
+  </si>
+  <si>
+    <t>Skilled Mason Training</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>05/28/15</t>
+  </si>
+  <si>
+    <t>07/04/15</t>
+  </si>
+  <si>
+    <t>09/04/15</t>
+  </si>
+  <si>
+    <t>524 2 05 29 5 016</t>
+  </si>
+  <si>
+    <t>ADRANepal Red CrossRasuwaBriddimUnknownPermanent ReconstructionIndividual HouseholdsYes32</t>
+  </si>
+  <si>
+    <t>Thulo Gaun</t>
+  </si>
+  <si>
+    <t>524 2 05 29 5 010</t>
+  </si>
+  <si>
+    <t>ADRANepal Red CrossRasuwaThulo GaunUnknownPermanent ReconstructionIndividual HouseholdsYes29</t>
+  </si>
+  <si>
+    <t>Timure</t>
+  </si>
+  <si>
+    <t>No road access - possibly no helicopter landing sites</t>
+  </si>
+  <si>
+    <t>524 2 05 29 5 013</t>
+  </si>
+  <si>
+    <t>ADRANepal Red CrossRasuwaTimureUnknownPermanent ReconstructionIndividual HouseholdsYes19</t>
+  </si>
+  <si>
+    <t>CARE</t>
+  </si>
+  <si>
+    <t>RCDC</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>Hari.Adhikari@care.org</t>
+  </si>
+  <si>
+    <t>Lamjung</t>
+  </si>
+  <si>
+    <t>Bhorletar</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>07/08/15</t>
+  </si>
+  <si>
+    <t>Social Mobilisers and volunteers will be able to guide people in the communities to use well CGI, fixing kits and tools, as well to aware communities on Building Back Safer.</t>
+  </si>
+  <si>
+    <t>09/11/15</t>
+  </si>
+  <si>
+    <t>524 3 07 37</t>
+  </si>
+  <si>
+    <t>524 3 07 37 5 052</t>
+  </si>
+  <si>
+    <t>CARERCDCLamjungBhorletarAllCommunity</t>
+  </si>
+  <si>
+    <t>Elampokhari</t>
+  </si>
+  <si>
+    <t>07/02/15</t>
+  </si>
+  <si>
+    <t>524 3 07 37 5 021</t>
+  </si>
+  <si>
+    <t>CARERCDCLamjungElampokhariAllCommunity</t>
+  </si>
+  <si>
+    <t>Gauda</t>
+  </si>
+  <si>
+    <t>524 3 07 37 5 025</t>
+  </si>
+  <si>
+    <t>CARERCDCLamjungGaudaAllCommunity</t>
+  </si>
+  <si>
+    <t>Isaneshwar</t>
+  </si>
+  <si>
+    <t>524 3 07 37 5 053</t>
+  </si>
+  <si>
+    <t>CARERCDCLamjungIsaneshwarAllCommunity</t>
+  </si>
+  <si>
+    <t>Ramgha</t>
+  </si>
+  <si>
+    <t>07/06/15</t>
+  </si>
+  <si>
+    <t>524 3 07 37 5 047</t>
+  </si>
+  <si>
+    <t>CARERCDCLamjungRamghaAllCommunity</t>
+  </si>
+  <si>
+    <t>SAHAS</t>
+  </si>
+  <si>
+    <t>Prabin</t>
+  </si>
+  <si>
+    <t>prabin.giri@care.org</t>
+  </si>
+  <si>
+    <t>Salyan Tar</t>
+  </si>
+  <si>
+    <t>Temporary Shelter</t>
+  </si>
+  <si>
+    <t>524 2 05 30 5 008</t>
+  </si>
+  <si>
+    <t>CARESAHASDhadingSalyan TarTemporary ShelterCommunity</t>
+  </si>
+  <si>
+    <t>Cesvi</t>
+  </si>
+  <si>
+    <t>CWIN</t>
+  </si>
+  <si>
+    <t>Zeeshan Muhammad</t>
+  </si>
+  <si>
+    <t>coordinator_pak@cesvioverseas.org</t>
+  </si>
+  <si>
+    <t>9808438677</t>
+  </si>
+  <si>
+    <t>Chainpur</t>
+  </si>
+  <si>
+    <t>08/24/15</t>
+  </si>
+  <si>
+    <t>4x4/Pickup access</t>
+  </si>
+  <si>
+    <t>524 2 05 30 5 030</t>
+  </si>
+  <si>
+    <t>CesviCWINDhadingChainpurAllTemporary ShelterIndividual Households</t>
+  </si>
+  <si>
+    <t>Christian Aid</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>Dipankar</t>
+  </si>
+  <si>
+    <t>DPatnaik@christian-aid.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Aid </t>
+  </si>
+  <si>
+    <t>Kathmandu</t>
+  </si>
+  <si>
+    <t>Specialist Training</t>
+  </si>
+  <si>
+    <t>06/03/15</t>
+  </si>
+  <si>
+    <t>06/05/15</t>
+  </si>
+  <si>
+    <t>15 master carpenters attended/Seto Gurans</t>
+  </si>
+  <si>
+    <t>09/18/15</t>
+  </si>
+  <si>
+    <t>524 2 05 27</t>
+  </si>
+  <si>
+    <t>Christian AidKathmanduUnknownSpecialist Training</t>
+  </si>
+  <si>
+    <t>Lumanti</t>
+  </si>
+  <si>
+    <t>Aginchok</t>
+  </si>
+  <si>
+    <t>06/26/15</t>
+  </si>
+  <si>
+    <t>46 master carpenters from Aginchok and Jyamruck trained</t>
+  </si>
+  <si>
+    <t>524 2 05 30 5 006</t>
+  </si>
+  <si>
+    <t>Christian AidLumantiDhadingAginchokUnknownSpecialist Training</t>
+  </si>
+  <si>
+    <t>IOM</t>
+  </si>
+  <si>
+    <t>Practical Action</t>
+  </si>
+  <si>
+    <t>Gorkha</t>
+  </si>
+  <si>
+    <t>Asrang</t>
+  </si>
+  <si>
+    <t>06/11/15</t>
+  </si>
+  <si>
+    <t>06/12/15</t>
+  </si>
+  <si>
+    <t>44 master carpenters attended</t>
+  </si>
+  <si>
+    <t>524 3 07 36</t>
+  </si>
+  <si>
+    <t>524 3 07 36 5 003</t>
+  </si>
+  <si>
+    <t>Christian AidPractical ActionGorkhaAsrangUnknownSpecialist Training</t>
+  </si>
+  <si>
+    <t>Jiwanpur</t>
+  </si>
+  <si>
+    <t>06/18/15</t>
+  </si>
+  <si>
+    <t>2 master carpenters attended</t>
+  </si>
+  <si>
+    <t>524 2 05 30 5 048</t>
+  </si>
+  <si>
+    <t>Christian AidLumantiDhadingJiwanpurUnknownSpecialist Training</t>
+  </si>
+  <si>
+    <t>Clean Energy Nepal</t>
+  </si>
+  <si>
+    <t>Sindhupalchok</t>
+  </si>
+  <si>
+    <t>Thulo Pakhar</t>
+  </si>
+  <si>
+    <t>06/13/15</t>
+  </si>
+  <si>
+    <t>74 master carpenters attended two separate training sessions</t>
+  </si>
+  <si>
+    <t>524 2 05 23</t>
+  </si>
+  <si>
+    <t>524 2 05 23 5 025</t>
+  </si>
+  <si>
+    <t>Christian AidClean Energy NepalSindhupalchokThulo PakharUnknownSpecialist Training</t>
+  </si>
+  <si>
+    <t>Lutheran World Federation</t>
+  </si>
+  <si>
+    <t>Dolakha</t>
+  </si>
+  <si>
+    <t>Jiri</t>
+  </si>
+  <si>
+    <t>08/07/15</t>
+  </si>
+  <si>
+    <t>24 master carpenters attended</t>
+  </si>
+  <si>
+    <t>524 2 04 22</t>
+  </si>
+  <si>
+    <t>524 2 04 22 5 003</t>
+  </si>
+  <si>
+    <t>Christian AidLutheran World FederationDolakhaJiriUnknownSpecialist Training</t>
+  </si>
+  <si>
+    <t>Suri</t>
+  </si>
+  <si>
+    <t>08/14/15</t>
+  </si>
+  <si>
+    <t>38 master carpenters attended</t>
+  </si>
+  <si>
+    <t>Tractor access</t>
+  </si>
+  <si>
+    <t>524 2 04 22 5 012</t>
+  </si>
+  <si>
+    <t>Christian AidLutheran World FederationDolakhaSuriUnknownSpecialist Training</t>
+  </si>
+  <si>
+    <t>Marbu</t>
+  </si>
+  <si>
+    <t>524 2 04 22 5 023</t>
+  </si>
+  <si>
+    <t>Christian AidLutheran World FederationDolakhaMarbuUnknownSpecialist Training</t>
+  </si>
+  <si>
+    <t>CRS-Caritas</t>
+  </si>
+  <si>
+    <t>CRS</t>
+  </si>
+  <si>
+    <t>jamie.richardson@crs.org</t>
+  </si>
+  <si>
+    <t>9860892268</t>
+  </si>
+  <si>
+    <t>Bungkot</t>
+  </si>
+  <si>
+    <t>Specialists (including ToTs)</t>
+  </si>
+  <si>
+    <t>Basic Training on Stone Mud Masonry</t>
+  </si>
+  <si>
+    <t>06/21/15</t>
+  </si>
+  <si>
+    <t>08/15/15</t>
+  </si>
+  <si>
+    <t>Pilot</t>
+  </si>
+  <si>
+    <t>524 3 07 36 5 005</t>
+  </si>
+  <si>
+    <t>CRS-CaritasGorkhaBungkotAllPermanent ReconstructionSpecialists (including ToTs)Yes10</t>
+  </si>
+  <si>
+    <t>Gorkha Technical Training Center</t>
+  </si>
+  <si>
+    <t>Taple</t>
+  </si>
+  <si>
+    <t>08/19/15</t>
+  </si>
+  <si>
+    <t>08/18/16</t>
+  </si>
+  <si>
+    <t>524 3 07 36 5 009</t>
+  </si>
+  <si>
+    <t>CRS-CaritasGorkha Technical Training CenterGorkhaTapleAllPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>08/19/16</t>
+  </si>
+  <si>
+    <t>CRS-CaritasGorkha Technical Training CenterGorkhaAsrangAllPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>Hansapur</t>
+  </si>
+  <si>
+    <t>08/20/16</t>
+  </si>
+  <si>
+    <t>524 3 07 36 5 019</t>
+  </si>
+  <si>
+    <t>CRS-CaritasGorkha Technical Training CenterGorkhaHansapurAllPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>Kerabari</t>
+  </si>
+  <si>
+    <t>08/21/16</t>
+  </si>
+  <si>
+    <t>524 3 07 36 5 022</t>
+  </si>
+  <si>
+    <t>CRS-CaritasGorkha Technical Training CenterGorkhaKerabariAllPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>Kharibot</t>
+  </si>
+  <si>
+    <t>08/22/16</t>
+  </si>
+  <si>
+    <t>524 3 07 36 5 023</t>
+  </si>
+  <si>
+    <t>CRS-CaritasGorkha Technical Training CenterGorkhaKharibotAllPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>Jaubari</t>
+  </si>
+  <si>
+    <t>08/23/16</t>
+  </si>
+  <si>
+    <t>524 3 07 36 5 021</t>
+  </si>
+  <si>
+    <t>CRS-CaritasGorkha Technical Training CenterGorkhaJaubariAllPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>Mumlichok</t>
+  </si>
+  <si>
+    <t>08/24/16</t>
+  </si>
+  <si>
+    <t>524 3 07 36 5 017</t>
+  </si>
+  <si>
+    <t>CRS-CaritasGorkha Technical Training CenterGorkhaMumlichokAllPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>Amppipal</t>
+  </si>
+  <si>
+    <t>08/25/16</t>
+  </si>
+  <si>
+    <t>524 3 07 36 5 018</t>
+  </si>
+  <si>
+    <t>CRS-CaritasGorkha Technical Training CenterGorkhaAmppipalAllPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>Palungtar</t>
+  </si>
+  <si>
+    <t>08/26/16</t>
+  </si>
+  <si>
+    <t>524 3 07 36 5 031</t>
+  </si>
+  <si>
+    <t>CRS-CaritasGorkha Technical Training CenterGorkhaPalungtarAllPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>Gaikhur</t>
+  </si>
+  <si>
+    <t>08/27/16</t>
+  </si>
+  <si>
+    <t>524 3 07 36 5 029</t>
+  </si>
+  <si>
+    <t>CRS-CaritasGorkha Technical Training CenterGorkhaGaikhurAllPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>9860892269</t>
+  </si>
+  <si>
+    <t>Chyangling</t>
+  </si>
+  <si>
+    <t>524 3 07 36 5 027</t>
+  </si>
+  <si>
+    <t>CRS-CaritasGorkha Technical Training CenterGorkhaChyanglingAllPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>Germany-GIZ</t>
+  </si>
+  <si>
+    <t>GIZ</t>
+  </si>
+  <si>
+    <t>Sewa Shrestha</t>
+  </si>
+  <si>
+    <t>9841260748</t>
+  </si>
+  <si>
+    <t>sewa.shrestha@giz.de</t>
+  </si>
+  <si>
+    <t>Chautara</t>
+  </si>
+  <si>
+    <t>05/21/15</t>
+  </si>
+  <si>
+    <t>524 2 05 23 5 035</t>
+  </si>
+  <si>
+    <t>Germany-GIZSindhupalchokChautaraUnknown</t>
+  </si>
+  <si>
+    <t>Handicap International</t>
+  </si>
+  <si>
+    <t>Shelterbox</t>
+  </si>
+  <si>
+    <t>Tiphaine Noisette</t>
+  </si>
+  <si>
+    <t>pm.shelter@handicap-international-npl.org</t>
+  </si>
+  <si>
+    <t>9810183853</t>
+  </si>
+  <si>
+    <t>BBS and inclusion principles</t>
+  </si>
+  <si>
+    <t>09/15/15</t>
+  </si>
+  <si>
+    <t>11/30/15</t>
+  </si>
+  <si>
+    <t>08/16/15</t>
+  </si>
+  <si>
+    <t>Handicap InternationalNuwakotPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>HURADEC</t>
+  </si>
+  <si>
+    <t>Action Aid Nepal</t>
+  </si>
+  <si>
+    <t>Nabaraj Khadka</t>
+  </si>
+  <si>
+    <t>nepalikhadka@gmail.com</t>
+  </si>
+  <si>
+    <t>9844308153</t>
+  </si>
+  <si>
+    <t>Gairimudi</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>07/10/15</t>
+  </si>
+  <si>
+    <t>07/20/15</t>
+  </si>
+  <si>
+    <t>07/26/15</t>
+  </si>
+  <si>
+    <t>524 2 04 22 5 002</t>
+  </si>
+  <si>
+    <t>HURADECDolakhaGairimudi5Individual Households</t>
+  </si>
+  <si>
+    <t>Hawa</t>
+  </si>
+  <si>
+    <t>07/16/15</t>
+  </si>
+  <si>
+    <t>07/23/15</t>
+  </si>
+  <si>
+    <t>524 2 04 22 5 015</t>
+  </si>
+  <si>
+    <t>HURADECDolakhaHawaAllIndividual Households</t>
+  </si>
+  <si>
+    <t>Kalinchok</t>
+  </si>
+  <si>
+    <t>1, 2, 8</t>
+  </si>
+  <si>
+    <t>07/18/15</t>
+  </si>
+  <si>
+    <t>524 2 04 22 5 041</t>
+  </si>
+  <si>
+    <t>HURADECDolakhaKalinchok1, 2, 8Individual Households</t>
+  </si>
+  <si>
+    <t>Lutheran World Federation (LWF)</t>
+  </si>
+  <si>
+    <t>Christian - Aid</t>
+  </si>
+  <si>
+    <t>Tek Prasad Dhungana</t>
+  </si>
+  <si>
+    <t>se@lwf.org.np</t>
+  </si>
+  <si>
+    <t>01-4720217</t>
+  </si>
+  <si>
+    <t>Carpenter Training</t>
+  </si>
+  <si>
+    <t>Lutheran World Federation (LWF)HURADECDolakhaJiriTemporary ShelterSpecialists (including ToTs)Yes30</t>
+  </si>
+  <si>
+    <t>Organized jointly at 
+same place and time</t>
+  </si>
+  <si>
+    <t>Lutheran World Federation (LWF)HURADECDolakhaSuriTemporary ShelterSpecialists (including ToTs)Yes19</t>
+  </si>
+  <si>
+    <t>Lutheran World Federation (LWF)HURADECDolakhaMarbuTemporary ShelterSpecialists (including ToTs)Yes19</t>
+  </si>
+  <si>
+    <t>Chilime</t>
+  </si>
+  <si>
+    <t>06/08/15</t>
+  </si>
+  <si>
+    <t>524 2 05 29 5 012</t>
+  </si>
+  <si>
+    <t>Lutheran World Federation (LWF)RasuwaChilimeUnknownCommunity</t>
+  </si>
+  <si>
+    <t>Gatlang</t>
+  </si>
+  <si>
+    <t>524 2 05 29 5 011</t>
+  </si>
+  <si>
+    <t>Lutheran World Federation (LWF)RasuwaGatlangUnknownCommunity</t>
+  </si>
+  <si>
+    <t>Goljung</t>
+  </si>
+  <si>
+    <t>524 2 05 29 5 018</t>
+  </si>
+  <si>
+    <t>Lutheran World Federation (LWF)RasuwaGoljungUnknownCommunity</t>
+  </si>
+  <si>
+    <t>Ramche</t>
+  </si>
+  <si>
+    <t>524 2 05 29 5 008</t>
+  </si>
+  <si>
+    <t>Lutheran World Federation (LWF)RasuwaRamcheUnknownCommunity</t>
+  </si>
+  <si>
+    <t>Yarsa</t>
+  </si>
+  <si>
+    <t>524 2 05 29 5 003</t>
+  </si>
+  <si>
+    <t>Lutheran World Federation (LWF)RasuwaYarsaUnknownCommunity</t>
+  </si>
+  <si>
+    <t>IRW</t>
+  </si>
+  <si>
+    <t>Manekor Society Nepal (MSN)</t>
+  </si>
+  <si>
+    <t>Organized Jointly at one location</t>
+  </si>
+  <si>
+    <t>Lutheran World Federation (LWF)Manekor Society Nepal (MSN)RasuwaChilimeAllTemporary ShelterSpecialists (including ToTs)Yes18</t>
+  </si>
+  <si>
+    <t>Lutheran World Federation (LWF)Manekor Society Nepal (MSN)RasuwaGoljungAllTemporary ShelterSpecialists (including ToTs)Yes16</t>
+  </si>
+  <si>
+    <t>09/05/15</t>
+  </si>
+  <si>
+    <t>Lutheran World Federation (LWF)Manekor Society Nepal (MSN)RasuwaGatlangAllTemporary ShelterSpecialists (including ToTs)Yes18</t>
+  </si>
+  <si>
+    <t>09/07/15</t>
+  </si>
+  <si>
+    <t>Lutheran World Federation (LWF)Manekor Society Nepal (MSN)RasuwaRamcheAllTemporary ShelterSpecialists (including ToTs)Yes12</t>
+  </si>
+  <si>
+    <t>Lutheran World Federation (LWF)Manekor Society Nepal (MSN)RasuwaYarsaAllTemporary ShelterSpecialists (including ToTs)Yes18</t>
+  </si>
+  <si>
+    <t>Namaste Nepal</t>
+  </si>
+  <si>
+    <t>CRo</t>
+  </si>
+  <si>
+    <t>Sona Huberova</t>
+  </si>
+  <si>
+    <t>sonahuberova@yahoo.com</t>
+  </si>
+  <si>
+    <t>Simthali</t>
+  </si>
+  <si>
+    <t>08/02/15</t>
+  </si>
+  <si>
+    <t>Planned Community Training (drop down not working); Structural assessment Completed in about half of the households in all 9 wards (236 HH assessed; 93% red)</t>
+  </si>
+  <si>
+    <t>524 2 05 24 5 087</t>
+  </si>
+  <si>
+    <t>Namaste NepalKabhrepalanchokSimthaliCommunity</t>
+  </si>
+  <si>
+    <t>Sagarmatha Int</t>
+  </si>
+  <si>
+    <t>Anekot</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>please fill (drop-down not working): Planned Awareness sessions, Panchkhal Municipality, one day long, no payment to participants, no targeting, start date 29-Sep-15</t>
+  </si>
+  <si>
+    <t>524 2 05 24 5 067</t>
+  </si>
+  <si>
+    <t>Namaste NepalSagarmatha IntKabhrepalanchokAnekotPermanent ReconstructionCommunityYes</t>
+  </si>
+  <si>
+    <t>Mahadevtar</t>
+  </si>
+  <si>
+    <t>please fill (drop-down not working): Planned Awareness sessions, one day long, no payment to participants, no targeting, start date 2-Oct-15</t>
+  </si>
+  <si>
+    <t>524 2 05 24 5 031</t>
+  </si>
+  <si>
+    <t>Namaste NepalSagarmatha IntKabhrepalanchokMahadevtarPermanent ReconstructionCommunityYes</t>
+  </si>
+  <si>
+    <t>12,13,14,15</t>
+  </si>
+  <si>
+    <t>please fill (drop-down not working): Planned Skilled Workers training, Panchkhal Municipality, no payment to participants, approx. 3 days theoretical, subsequent practical on-site</t>
+  </si>
+  <si>
+    <t>Namaste NepalSagarmatha IntKabhrepalanchokAnekot12,13,14,15Permanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>Nepal Red CrossDolakhaUnknownSpecialists (including ToTs)</t>
+  </si>
+  <si>
+    <t>Nepal Red CrossDolakhaUnknownCommunity</t>
+  </si>
+  <si>
+    <t>Nepal Red CrossDolakhaUnknownIndividual Households</t>
+  </si>
+  <si>
+    <t>Sindhuli</t>
+  </si>
+  <si>
+    <t>524 2 04 20</t>
+  </si>
+  <si>
+    <t>Nepal Red CrossSindhuliUnknownSpecialists (including ToTs)</t>
+  </si>
+  <si>
+    <t>Nepal Red CrossSindhuliUnknownCommunity</t>
+  </si>
+  <si>
+    <t>Nepal Red CrossSindhuliUnknownIndividual Households</t>
+  </si>
+  <si>
+    <t>Ramechhap</t>
+  </si>
+  <si>
+    <t>524 2 04 21</t>
+  </si>
+  <si>
+    <t>Nepal Red CrossRamechhapUnknownSpecialists (including ToTs)</t>
+  </si>
+  <si>
+    <t>Nepal Red CrossRamechhapUnknownCommunity</t>
+  </si>
+  <si>
+    <t>Nepal Red CrossRamechhapUnknownIndividual Households</t>
+  </si>
+  <si>
+    <t>Norwegian Red Cross</t>
+  </si>
+  <si>
+    <t>Ramesh Ghimirey</t>
+  </si>
+  <si>
+    <t>ramesh.ghimirey@nrcs.org</t>
+  </si>
+  <si>
+    <t>9841253443</t>
+  </si>
+  <si>
+    <t>Bandegaun</t>
+  </si>
+  <si>
+    <t>Build Back Safer</t>
+  </si>
+  <si>
+    <t>11/01/15</t>
+  </si>
+  <si>
+    <t>524 2 05 23 5 044</t>
+  </si>
+  <si>
+    <t>Nepal Red CrossSindhupalchokBandegaunAllPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>9841253444</t>
+  </si>
+  <si>
+    <t>Kunchok</t>
+  </si>
+  <si>
+    <t>524 2 05 23 5 046</t>
+  </si>
+  <si>
+    <t>Nepal Red CrossSindhupalchokKunchokAllPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>9841253445</t>
+  </si>
+  <si>
+    <t>Nawalpur</t>
+  </si>
+  <si>
+    <t>524 2 05 23 5 048</t>
+  </si>
+  <si>
+    <t>Nepal Red CrossSindhupalchokNawalpurAllPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>9841253446</t>
+  </si>
+  <si>
+    <t>Shikharpur</t>
+  </si>
+  <si>
+    <t>524 2 05 23 5 074</t>
+  </si>
+  <si>
+    <t>Nepal Red CrossSindhupalchokShikharpurAllPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>details to be updated</t>
+  </si>
+  <si>
+    <t>Nepal Red CrossSindhupalchokBandegaunAllPermanent ReconstructionCommunityYes</t>
+  </si>
+  <si>
+    <t>Nepal Red CrossSindhupalchokKunchokAllPermanent ReconstructionCommunityYes</t>
+  </si>
+  <si>
+    <t>Nepal Red CrossSindhupalchokNawalpurAllPermanent ReconstructionCommunityYes</t>
+  </si>
+  <si>
+    <t>Nepal Red CrossSindhupalchokShikharpurAllPermanent ReconstructionCommunityYes</t>
+  </si>
+  <si>
+    <t>Peace Winds Japan</t>
+  </si>
+  <si>
+    <t>ISAP</t>
+  </si>
+  <si>
+    <t>Yoshiko Hagiwara</t>
+  </si>
+  <si>
+    <t>nepal@peace-winds.org</t>
+  </si>
+  <si>
+    <t>9813172379/9851220309</t>
+  </si>
+  <si>
+    <t>Sanusirubari</t>
+  </si>
+  <si>
+    <t>Mason Training for Stone in Mud Mortar with Cement Banding</t>
+  </si>
+  <si>
+    <t>01/16/00</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>08/01/15</t>
+  </si>
+  <si>
+    <t>10/26/15</t>
+  </si>
+  <si>
+    <t>Vulnerable Caste should not be a measure. Individuals from any caste with very poor economic resources can be vulnerable.</t>
+  </si>
+  <si>
+    <t>08/30/15</t>
+  </si>
+  <si>
+    <t>524 2 05 23 5 039</t>
+  </si>
+  <si>
+    <t>Peace Winds JapanISAPSindhupalchokSanusirubariAllPermanent ReconstructionCommunityYes32</t>
+  </si>
+  <si>
+    <t>People in Need</t>
+  </si>
+  <si>
+    <t>Daniel Coyle</t>
+  </si>
+  <si>
+    <t>daniel.coyle@peopleinneed.cz</t>
+  </si>
+  <si>
+    <t>9824132181</t>
+  </si>
+  <si>
+    <t>Thuman</t>
+  </si>
+  <si>
+    <t>06/06/15</t>
+  </si>
+  <si>
+    <t>T-shelter training, specialist focused</t>
+  </si>
+  <si>
+    <t>524 2 05 29 5 014</t>
+  </si>
+  <si>
+    <t>People in NeedRasuwaThumanAllCommunity</t>
+  </si>
+  <si>
+    <t>Plan International</t>
+  </si>
+  <si>
+    <t>DFATD / CNO</t>
+  </si>
+  <si>
+    <t>School of Shelter and Environment (SSE)</t>
+  </si>
+  <si>
+    <t>Yamanta Raj Niroula</t>
+  </si>
+  <si>
+    <t>yamantaraj.niroula@plan-international.org</t>
+  </si>
+  <si>
+    <t>9801242208</t>
+  </si>
+  <si>
+    <t>Training to affected households for proper use of shelter kits provided</t>
+  </si>
+  <si>
+    <t>Plan InternationalSchool of Shelter and Environment (SSE)SindhupalchokShikharpurAllTemporary ShelterCommunityYes</t>
+  </si>
+  <si>
+    <t>Jyamire</t>
+  </si>
+  <si>
+    <t>10/18/15</t>
+  </si>
+  <si>
+    <t>524 2 05 23 5 075</t>
+  </si>
+  <si>
+    <t>Plan InternationalSchool of Shelter and Environment (SSE)SindhupalchokJyamireAllTemporary ShelterCommunityYes</t>
+  </si>
+  <si>
+    <t>Sinpal Kavre</t>
+  </si>
+  <si>
+    <t>09/29/15</t>
+  </si>
+  <si>
+    <t>524 2 05 23 5 047</t>
+  </si>
+  <si>
+    <t>Plan InternationalSchool of Shelter and Environment (SSE)SindhupalchokSinpal KavreAllTemporary ShelterCommunityYes</t>
+  </si>
+  <si>
+    <t>Syaule</t>
+  </si>
+  <si>
+    <t>09/20/15</t>
+  </si>
+  <si>
+    <t>524 2 05 23 5 034</t>
+  </si>
+  <si>
+    <t>Plan InternationalSchool of Shelter and Environment (SSE)SindhupalchokSyauleAllTemporary ShelterCommunityYes</t>
+  </si>
+  <si>
+    <t>09/24/15</t>
+  </si>
+  <si>
+    <t>Plan InternationalSchool of Shelter and Environment (SSE)SindhupalchokBandegaunAllTemporary ShelterCommunityYes</t>
+  </si>
+  <si>
+    <t>Bhotsipa</t>
+  </si>
+  <si>
+    <t>10/04/15</t>
+  </si>
+  <si>
+    <t>524 2 05 23 5 043</t>
+  </si>
+  <si>
+    <t>Plan InternationalSchool of Shelter and Environment (SSE)SindhupalchokBhotsipaAllTemporary ShelterCommunityYes</t>
+  </si>
+  <si>
+    <t>Batase</t>
+  </si>
+  <si>
+    <t>10/08/15</t>
+  </si>
+  <si>
+    <t>524 2 05 23 5 033</t>
+  </si>
+  <si>
+    <t>Plan InternationalSchool of Shelter and Environment (SSE)SindhupalchokBataseAllTemporary ShelterCommunityYes</t>
+  </si>
+  <si>
+    <t>Bhotenamlang</t>
+  </si>
+  <si>
+    <t>10/13/15</t>
+  </si>
+  <si>
+    <t>524 2 05 23 5 077</t>
+  </si>
+  <si>
+    <t>Plan InternationalSchool of Shelter and Environment (SSE)SindhupalchokBhotenamlangAllTemporary ShelterCommunityYes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earthquake Safety Construction Skill Training for masons, construction technicians </t>
+  </si>
+  <si>
+    <t>09/16/15</t>
+  </si>
+  <si>
+    <t>09/21/15</t>
+  </si>
+  <si>
+    <t>Plan InternationalSchool of Shelter and Environment (SSE)SindhupalchokShikharpurAllPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>10/27/15</t>
+  </si>
+  <si>
+    <t>Plan InternationalSchool of Shelter and Environment (SSE)SindhupalchokJyamireAllPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>Plan InternationalSchool of Shelter and Environment (SSE)SindhupalchokSinpal KavreAllPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>09/22/15</t>
+  </si>
+  <si>
+    <t>09/27/15</t>
+  </si>
+  <si>
+    <t>Plan InternationalSchool of Shelter and Environment (SSE)SindhupalchokSyauleAllPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>09/28/15</t>
+  </si>
+  <si>
+    <t>10/02/15</t>
+  </si>
+  <si>
+    <t>Plan InternationalSchool of Shelter and Environment (SSE)SindhupalchokBandegaunAllPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>10/09/15</t>
+  </si>
+  <si>
+    <t>10/14/15</t>
+  </si>
+  <si>
+    <t>Plan InternationalSchool of Shelter and Environment (SSE)SindhupalchokBhotsipaAllPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>10/15/15</t>
+  </si>
+  <si>
+    <t>10/20/15</t>
+  </si>
+  <si>
+    <t>Plan InternationalSchool of Shelter and Environment (SSE)SindhupalchokBataseAllPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>10/21/15</t>
+  </si>
+  <si>
+    <t>Plan InternationalSchool of Shelter and Environment (SSE)SindhupalchokBhotenamlangAllPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save the Children </t>
+  </si>
+  <si>
+    <t>DFID</t>
+  </si>
+  <si>
+    <t>Save the Children</t>
+  </si>
+  <si>
+    <t>Clara Gomez</t>
+  </si>
+  <si>
+    <t>Clara.Pineda@savethechildren.org</t>
+  </si>
+  <si>
+    <t>9810172560</t>
+  </si>
+  <si>
+    <t>Training of Trainers on Safer Shelter Construction</t>
+  </si>
+  <si>
+    <t>07/13/15</t>
+  </si>
+  <si>
+    <t>07/17/15</t>
+  </si>
+  <si>
+    <t>RedR India</t>
+  </si>
+  <si>
+    <t>Save the Children Save the ChildrenGorkhaPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>07/24/15</t>
+  </si>
+  <si>
+    <t>Save the Children Save the ChildrenDolakhaPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>07/28/15</t>
+  </si>
+  <si>
+    <t>Save the Children Save the ChildrenNuwakotPermanent ReconstructionSpecialists (including ToTs)Yes</t>
+  </si>
+  <si>
+    <t>Tearfund</t>
+  </si>
+  <si>
+    <t>Tearfund/RADO</t>
+  </si>
+  <si>
+    <t>RADO</t>
+  </si>
+  <si>
+    <t>Rashmi Manandhar</t>
+  </si>
+  <si>
+    <t>nepal-shelter-officer@tearfund.org</t>
+  </si>
+  <si>
+    <t>9808360148</t>
+  </si>
+  <si>
+    <t>Makawanpur</t>
+  </si>
+  <si>
+    <t>Agra</t>
+  </si>
+  <si>
+    <t>Community orientation on buidling back better</t>
+  </si>
+  <si>
+    <t>10/10/15</t>
+  </si>
+  <si>
+    <t>10/30/15</t>
+  </si>
+  <si>
+    <t>Actual numbers of participants by gender/age/disability/HH will come after completion of orientation</t>
+  </si>
+  <si>
+    <t>524 2 06 31</t>
+  </si>
+  <si>
+    <t>524 2 06 31 5 032</t>
+  </si>
+  <si>
+    <t>TearfundRADOMakawanpurAgraAllPermanent ReconstructionCommunityYes60</t>
+  </si>
+  <si>
+    <t>Tistung</t>
+  </si>
+  <si>
+    <t>524 2 06 31 5 033</t>
+  </si>
+  <si>
+    <t>TearfundRADOMakawanpurTistungAllPermanent ReconstructionCommunityYes60</t>
+  </si>
+  <si>
+    <t>Traning of Masons in earthquake resilient construction techniques</t>
+  </si>
+  <si>
+    <t>09/14/15</t>
+  </si>
+  <si>
+    <t>09/30/15</t>
+  </si>
+  <si>
+    <t>Actual numbers of participants by gender/age/HH will come after completion of orientation</t>
+  </si>
+  <si>
+    <t>TearfundRADOMakawanpurAgraAllPermanent ReconstructionSpecialists (including ToTs)Yes72</t>
+  </si>
+  <si>
+    <t>TearfundRADOMakawanpurTistungAllPermanent ReconstructionSpecialists (including ToTs)Yes72</t>
   </si>
 </sst>
 </file>
@@ -355,17 +1738,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -380,9 +1758,8 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -753,31 +2130,30 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="n"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" t="s">
@@ -925,7 +2301,6 @@
       <c r="AC3" t="s">
         <v>46</v>
       </c>
-      <c r="AD3" t="n"/>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" t="s">
@@ -995,7 +2370,6 @@
       <c r="AC4" t="s">
         <v>61</v>
       </c>
-      <c r="AD4" t="n"/>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" t="s">
@@ -1065,7 +2439,6 @@
       <c r="AC5" t="s">
         <v>46</v>
       </c>
-      <c r="AD5" t="n"/>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" t="s">
@@ -1137,7 +2510,6 @@
       <c r="AC6" t="s">
         <v>61</v>
       </c>
-      <c r="AD6" t="n"/>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" t="s">
@@ -1209,7 +2581,6 @@
       <c r="AC7" t="s">
         <v>46</v>
       </c>
-      <c r="AD7" t="n"/>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" t="s">
@@ -1283,7 +2654,6 @@
       <c r="AC8" t="s">
         <v>46</v>
       </c>
-      <c r="AD8" t="n"/>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" t="s">
@@ -1355,7 +2725,6 @@
         <v>87</v>
       </c>
       <c r="AC9" t="s"/>
-      <c r="AD9" t="n"/>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" t="s">
@@ -1429,7 +2798,6 @@
       <c r="AC10" t="s">
         <v>46</v>
       </c>
-      <c r="AD10" t="n"/>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" t="s">
@@ -1503,7 +2871,6 @@
       <c r="AC11" t="s">
         <v>46</v>
       </c>
-      <c r="AD11" t="n"/>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" t="s">
@@ -1577,7 +2944,6 @@
       <c r="AC12" t="s">
         <v>46</v>
       </c>
-      <c r="AD12" t="n"/>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" t="s">
@@ -1649,7 +3015,6 @@
         <v>93</v>
       </c>
       <c r="AC13" t="s"/>
-      <c r="AD13" t="n"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" t="s">
@@ -1721,7 +3086,6 @@
         <v>94</v>
       </c>
       <c r="AC14" t="s"/>
-      <c r="AD14" t="n"/>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" t="s">
@@ -1793,7 +3157,6 @@
         <v>98</v>
       </c>
       <c r="AC15" t="s"/>
-      <c r="AD15" t="n"/>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" t="s">
@@ -1865,7 +3228,6 @@
         <v>102</v>
       </c>
       <c r="AC16" t="s"/>
-      <c r="AD16" t="n"/>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" t="s">
@@ -1937,7 +3299,6 @@
         <v>103</v>
       </c>
       <c r="AC17" t="s"/>
-      <c r="AD17" t="n"/>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" t="s">
@@ -2009,7 +3370,6 @@
         <v>105</v>
       </c>
       <c r="AC18" t="s"/>
-      <c r="AD18" t="n"/>
     </row>
     <row r="19" spans="1:30">
       <c r="A19" t="s"/>
@@ -2059,7 +3419,6 @@
         <v>107</v>
       </c>
       <c r="AC19" t="s"/>
-      <c r="AD19" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2072,14 +3431,8201 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:AL95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:38">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S1" t="s">
+        <v>120</v>
+      </c>
+      <c r="T1" t="s">
+        <v>121</v>
+      </c>
+      <c r="U1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O2" t="n">
+        <v>25</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>35000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>32</v>
+      </c>
+      <c r="S2" t="n">
+        <v>32</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s"/>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD2" t="s"/>
+      <c r="AE2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG2" t="s"/>
+      <c r="AH2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL2" t="n"/>
+    </row>
+    <row r="3" spans="1:38">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O3" t="n">
+        <v>25</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>35000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>29</v>
+      </c>
+      <c r="S3" t="n">
+        <v>29</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s"/>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD3" t="s"/>
+      <c r="AE3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" t="s"/>
+      <c r="AH3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N4" t="s">
+        <v>140</v>
+      </c>
+      <c r="O4" t="n">
+        <v>25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>35000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>19</v>
+      </c>
+      <c r="S4" t="n">
+        <v>19</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s"/>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD4" t="s"/>
+      <c r="AE4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>24</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="s"/>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
+      <c r="Z5" t="s"/>
+      <c r="AA5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG5" t="s"/>
+      <c r="AH5" t="s"/>
+      <c r="AI5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s">
+        <v>159</v>
+      </c>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>19</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="s"/>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s"/>
+      <c r="Z6" t="s"/>
+      <c r="AA6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG6" t="s"/>
+      <c r="AH6" t="s"/>
+      <c r="AI6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" t="s"/>
+      <c r="G7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>20</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="s"/>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+      <c r="Z7" t="s"/>
+      <c r="AA7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG7" t="s"/>
+      <c r="AH7" t="s"/>
+      <c r="AI7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s">
+        <v>159</v>
+      </c>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>18</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="s"/>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
+      <c r="Z8" t="s"/>
+      <c r="AA8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG8" t="s"/>
+      <c r="AH8" t="s"/>
+      <c r="AI8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
+      <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>21</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="s"/>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
+      <c r="Z9" t="s"/>
+      <c r="AA9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG9" t="s"/>
+      <c r="AH9" t="s"/>
+      <c r="AI9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>184</v>
+      </c>
+      <c r="K10" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>6</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="s"/>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+      <c r="Z10" t="s"/>
+      <c r="AA10" t="s"/>
+      <c r="AB10" t="s"/>
+      <c r="AC10" t="s"/>
+      <c r="AD10" t="s"/>
+      <c r="AE10" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG10" t="s"/>
+      <c r="AH10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>192</v>
+      </c>
+      <c r="I11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" t="s">
+        <v>184</v>
+      </c>
+      <c r="K11" t="s">
+        <v>138</v>
+      </c>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s">
+        <v>140</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="s"/>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
+      <c r="Z11" t="s"/>
+      <c r="AA11" t="s"/>
+      <c r="AB11" t="s"/>
+      <c r="AC11" t="s"/>
+      <c r="AD11" t="s"/>
+      <c r="AE11" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38">
+      <c r="A12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s">
+        <v>203</v>
+      </c>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="s"/>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s"/>
+      <c r="Z12" t="s"/>
+      <c r="AA12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG12" t="s"/>
+      <c r="AH12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ12" t="s"/>
+      <c r="AK12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
+      <c r="A13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>211</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="s"/>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s"/>
+      <c r="Z13" t="s"/>
+      <c r="AA13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
+      <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" t="s">
+        <v>201</v>
+      </c>
+      <c r="G14" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" t="s">
+        <v>219</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s"/>
+      <c r="K14" t="s">
+        <v>203</v>
+      </c>
+      <c r="L14" t="s"/>
+      <c r="M14" t="s"/>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="s"/>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+      <c r="Z14" t="s"/>
+      <c r="AA14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
+      <c r="A15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F15" t="s">
+        <v>201</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>226</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s"/>
+      <c r="K15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L15" t="s"/>
+      <c r="M15" t="s"/>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="s"/>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
+      <c r="Z15" t="s"/>
+      <c r="AA15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG15" t="s"/>
+      <c r="AH15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38">
+      <c r="A16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" t="s">
+        <v>200</v>
+      </c>
+      <c r="F16" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H16" t="s">
+        <v>233</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" t="s"/>
+      <c r="K16" t="s">
+        <v>203</v>
+      </c>
+      <c r="L16" t="s"/>
+      <c r="M16" t="s"/>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="s"/>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+      <c r="Z16" t="s"/>
+      <c r="AA16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38">
+      <c r="A17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" t="s">
+        <v>240</v>
+      </c>
+      <c r="H17" t="s">
+        <v>241</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s"/>
+      <c r="K17" t="s">
+        <v>203</v>
+      </c>
+      <c r="L17" t="s"/>
+      <c r="M17" t="s"/>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="s"/>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+      <c r="Z17" t="s"/>
+      <c r="AA17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38">
+      <c r="A18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" t="s">
+        <v>201</v>
+      </c>
+      <c r="G18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H18" t="s">
+        <v>247</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s"/>
+      <c r="K18" t="s">
+        <v>203</v>
+      </c>
+      <c r="L18" t="s"/>
+      <c r="M18" t="s"/>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="s"/>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
+      <c r="Z18" t="s"/>
+      <c r="AA18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38">
+      <c r="A19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" t="s">
+        <v>240</v>
+      </c>
+      <c r="H19" t="s">
+        <v>253</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s"/>
+      <c r="K19" t="s">
+        <v>203</v>
+      </c>
+      <c r="L19" t="s"/>
+      <c r="M19" t="s"/>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="s"/>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+      <c r="Z19" t="s"/>
+      <c r="AA19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD19" t="s"/>
+      <c r="AE19" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>254</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38">
+      <c r="A20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" t="s"/>
+      <c r="D20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E20" t="s">
+        <v>258</v>
+      </c>
+      <c r="F20" t="s">
+        <v>259</v>
+      </c>
+      <c r="G20" t="s">
+        <v>218</v>
+      </c>
+      <c r="H20" t="s">
+        <v>260</v>
+      </c>
+      <c r="I20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" t="s">
+        <v>261</v>
+      </c>
+      <c r="L20" t="s">
+        <v>262</v>
+      </c>
+      <c r="M20" t="s">
+        <v>140</v>
+      </c>
+      <c r="N20" t="s">
+        <v>140</v>
+      </c>
+      <c r="O20" t="n">
+        <v>140</v>
+      </c>
+      <c r="P20" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>7500</v>
+      </c>
+      <c r="R20" t="n">
+        <v>10</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="s"/>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38">
+      <c r="A21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F21" t="s">
+        <v>259</v>
+      </c>
+      <c r="G21" t="s">
+        <v>218</v>
+      </c>
+      <c r="H21" t="s">
+        <v>269</v>
+      </c>
+      <c r="I21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" t="s">
+        <v>261</v>
+      </c>
+      <c r="L21" t="s">
+        <v>262</v>
+      </c>
+      <c r="M21" t="s">
+        <v>140</v>
+      </c>
+      <c r="N21" t="s">
+        <v>140</v>
+      </c>
+      <c r="O21" t="n">
+        <v>189</v>
+      </c>
+      <c r="P21" t="n">
+        <v>12150</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>9000</v>
+      </c>
+      <c r="R21" t="n">
+        <v>27</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="s"/>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+      <c r="Z21" t="s"/>
+      <c r="AA21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD21" t="s"/>
+      <c r="AE21" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38">
+      <c r="A22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" t="s">
+        <v>257</v>
+      </c>
+      <c r="E22" t="s">
+        <v>258</v>
+      </c>
+      <c r="F22" t="s">
+        <v>259</v>
+      </c>
+      <c r="G22" t="s">
+        <v>218</v>
+      </c>
+      <c r="H22" t="s">
+        <v>219</v>
+      </c>
+      <c r="I22" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" t="s">
+        <v>137</v>
+      </c>
+      <c r="K22" t="s">
+        <v>261</v>
+      </c>
+      <c r="L22" t="s">
+        <v>262</v>
+      </c>
+      <c r="M22" t="s">
+        <v>140</v>
+      </c>
+      <c r="N22" t="s">
+        <v>140</v>
+      </c>
+      <c r="O22" t="n">
+        <v>189</v>
+      </c>
+      <c r="P22" t="n">
+        <v>12150</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>9000</v>
+      </c>
+      <c r="R22" t="n">
+        <v>27</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="s"/>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+      <c r="Z22" t="s"/>
+      <c r="AA22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD22" t="s"/>
+      <c r="AE22" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38">
+      <c r="A23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" t="s">
+        <v>268</v>
+      </c>
+      <c r="D23" t="s">
+        <v>257</v>
+      </c>
+      <c r="E23" t="s">
+        <v>258</v>
+      </c>
+      <c r="F23" t="s">
+        <v>259</v>
+      </c>
+      <c r="G23" t="s">
+        <v>218</v>
+      </c>
+      <c r="H23" t="s">
+        <v>276</v>
+      </c>
+      <c r="I23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" t="s">
+        <v>261</v>
+      </c>
+      <c r="L23" t="s">
+        <v>262</v>
+      </c>
+      <c r="M23" t="s">
+        <v>140</v>
+      </c>
+      <c r="N23" t="s">
+        <v>140</v>
+      </c>
+      <c r="O23" t="n">
+        <v>189</v>
+      </c>
+      <c r="P23" t="n">
+        <v>12150</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9000</v>
+      </c>
+      <c r="R23" t="n">
+        <v>27</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="s"/>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+      <c r="Z23" t="s"/>
+      <c r="AA23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD23" t="s"/>
+      <c r="AE23" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>278</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38">
+      <c r="A24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" t="s">
+        <v>268</v>
+      </c>
+      <c r="D24" t="s">
+        <v>257</v>
+      </c>
+      <c r="E24" t="s">
+        <v>258</v>
+      </c>
+      <c r="F24" t="s">
+        <v>259</v>
+      </c>
+      <c r="G24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H24" t="s">
+        <v>280</v>
+      </c>
+      <c r="I24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K24" t="s">
+        <v>261</v>
+      </c>
+      <c r="L24" t="s">
+        <v>262</v>
+      </c>
+      <c r="M24" t="s">
+        <v>140</v>
+      </c>
+      <c r="N24" t="s">
+        <v>140</v>
+      </c>
+      <c r="O24" t="n">
+        <v>189</v>
+      </c>
+      <c r="P24" t="n">
+        <v>12150</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>9000</v>
+      </c>
+      <c r="R24" t="n">
+        <v>27</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="s"/>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+      <c r="Z24" t="s"/>
+      <c r="AA24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD24" t="s"/>
+      <c r="AE24" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38">
+      <c r="A25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" t="s">
+        <v>257</v>
+      </c>
+      <c r="E25" t="s">
+        <v>258</v>
+      </c>
+      <c r="F25" t="s">
+        <v>259</v>
+      </c>
+      <c r="G25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H25" t="s">
+        <v>284</v>
+      </c>
+      <c r="I25" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" t="s">
+        <v>137</v>
+      </c>
+      <c r="K25" t="s">
+        <v>261</v>
+      </c>
+      <c r="L25" t="s">
+        <v>262</v>
+      </c>
+      <c r="M25" t="s">
+        <v>140</v>
+      </c>
+      <c r="N25" t="s">
+        <v>140</v>
+      </c>
+      <c r="O25" t="n">
+        <v>189</v>
+      </c>
+      <c r="P25" t="n">
+        <v>12150</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>9000</v>
+      </c>
+      <c r="R25" t="n">
+        <v>27</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="s"/>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s"/>
+      <c r="Z25" t="s"/>
+      <c r="AA25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD25" t="s"/>
+      <c r="AE25" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>286</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38">
+      <c r="A26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D26" t="s">
+        <v>257</v>
+      </c>
+      <c r="E26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F26" t="s">
+        <v>259</v>
+      </c>
+      <c r="G26" t="s">
+        <v>218</v>
+      </c>
+      <c r="H26" t="s">
+        <v>288</v>
+      </c>
+      <c r="I26" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" t="s">
+        <v>137</v>
+      </c>
+      <c r="K26" t="s">
+        <v>261</v>
+      </c>
+      <c r="L26" t="s">
+        <v>262</v>
+      </c>
+      <c r="M26" t="s">
+        <v>140</v>
+      </c>
+      <c r="N26" t="s">
+        <v>140</v>
+      </c>
+      <c r="O26" t="n">
+        <v>189</v>
+      </c>
+      <c r="P26" t="n">
+        <v>12150</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9000</v>
+      </c>
+      <c r="R26" t="n">
+        <v>27</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="s"/>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+      <c r="Z26" t="s"/>
+      <c r="AA26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD26" t="s"/>
+      <c r="AE26" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>290</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38">
+      <c r="A27" t="s">
+        <v>256</v>
+      </c>
+      <c r="B27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" t="s">
+        <v>268</v>
+      </c>
+      <c r="D27" t="s">
+        <v>257</v>
+      </c>
+      <c r="E27" t="s">
+        <v>258</v>
+      </c>
+      <c r="F27" t="s">
+        <v>259</v>
+      </c>
+      <c r="G27" t="s">
+        <v>218</v>
+      </c>
+      <c r="H27" t="s">
+        <v>292</v>
+      </c>
+      <c r="I27" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" t="s">
+        <v>137</v>
+      </c>
+      <c r="K27" t="s">
+        <v>261</v>
+      </c>
+      <c r="L27" t="s">
+        <v>262</v>
+      </c>
+      <c r="M27" t="s">
+        <v>140</v>
+      </c>
+      <c r="N27" t="s">
+        <v>140</v>
+      </c>
+      <c r="O27" t="n">
+        <v>189</v>
+      </c>
+      <c r="P27" t="n">
+        <v>12150</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>9000</v>
+      </c>
+      <c r="R27" t="n">
+        <v>27</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="s"/>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+      <c r="Z27" t="s"/>
+      <c r="AA27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>293</v>
+      </c>
+      <c r="AD27" t="s"/>
+      <c r="AE27" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG27" t="s"/>
+      <c r="AH27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>294</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38">
+      <c r="A28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" t="s">
+        <v>268</v>
+      </c>
+      <c r="D28" t="s">
+        <v>257</v>
+      </c>
+      <c r="E28" t="s">
+        <v>258</v>
+      </c>
+      <c r="F28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H28" t="s">
+        <v>296</v>
+      </c>
+      <c r="I28" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" t="s">
+        <v>137</v>
+      </c>
+      <c r="K28" t="s">
+        <v>261</v>
+      </c>
+      <c r="L28" t="s">
+        <v>262</v>
+      </c>
+      <c r="M28" t="s">
+        <v>140</v>
+      </c>
+      <c r="N28" t="s">
+        <v>140</v>
+      </c>
+      <c r="O28" t="n">
+        <v>189</v>
+      </c>
+      <c r="P28" t="n">
+        <v>12150</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>9000</v>
+      </c>
+      <c r="R28" t="n">
+        <v>27</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="s"/>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+      <c r="Z28" t="s"/>
+      <c r="AA28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>297</v>
+      </c>
+      <c r="AD28" t="s"/>
+      <c r="AE28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG28" t="s"/>
+      <c r="AH28" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>298</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38">
+      <c r="A29" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" t="s">
+        <v>268</v>
+      </c>
+      <c r="D29" t="s">
+        <v>257</v>
+      </c>
+      <c r="E29" t="s">
+        <v>258</v>
+      </c>
+      <c r="F29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G29" t="s">
+        <v>218</v>
+      </c>
+      <c r="H29" t="s">
+        <v>300</v>
+      </c>
+      <c r="I29" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" t="s">
+        <v>137</v>
+      </c>
+      <c r="K29" t="s">
+        <v>261</v>
+      </c>
+      <c r="L29" t="s">
+        <v>262</v>
+      </c>
+      <c r="M29" t="s">
+        <v>140</v>
+      </c>
+      <c r="N29" t="s">
+        <v>140</v>
+      </c>
+      <c r="O29" t="n">
+        <v>189</v>
+      </c>
+      <c r="P29" t="n">
+        <v>12150</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9000</v>
+      </c>
+      <c r="R29" t="n">
+        <v>27</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="s"/>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+      <c r="Z29" t="s"/>
+      <c r="AA29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD29" t="s"/>
+      <c r="AE29" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38">
+      <c r="A30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" t="s">
+        <v>257</v>
+      </c>
+      <c r="E30" t="s">
+        <v>258</v>
+      </c>
+      <c r="F30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" t="s">
+        <v>218</v>
+      </c>
+      <c r="H30" t="s">
+        <v>304</v>
+      </c>
+      <c r="I30" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30" t="s">
+        <v>137</v>
+      </c>
+      <c r="K30" t="s">
+        <v>261</v>
+      </c>
+      <c r="L30" t="s">
+        <v>262</v>
+      </c>
+      <c r="M30" t="s">
+        <v>140</v>
+      </c>
+      <c r="N30" t="s">
+        <v>140</v>
+      </c>
+      <c r="O30" t="n">
+        <v>189</v>
+      </c>
+      <c r="P30" t="n">
+        <v>12150</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>9000</v>
+      </c>
+      <c r="R30" t="n">
+        <v>27</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="s"/>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+      <c r="Z30" t="s"/>
+      <c r="AA30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD30" t="s"/>
+      <c r="AE30" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>306</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38">
+      <c r="A31" t="s">
+        <v>256</v>
+      </c>
+      <c r="B31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" t="s">
+        <v>268</v>
+      </c>
+      <c r="D31" t="s">
+        <v>257</v>
+      </c>
+      <c r="E31" t="s">
+        <v>258</v>
+      </c>
+      <c r="F31" t="s">
+        <v>308</v>
+      </c>
+      <c r="G31" t="s">
+        <v>218</v>
+      </c>
+      <c r="H31" t="s">
+        <v>309</v>
+      </c>
+      <c r="I31" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31" t="s">
+        <v>137</v>
+      </c>
+      <c r="K31" t="s">
+        <v>261</v>
+      </c>
+      <c r="L31" t="s">
+        <v>262</v>
+      </c>
+      <c r="M31" t="s">
+        <v>140</v>
+      </c>
+      <c r="N31" t="s">
+        <v>140</v>
+      </c>
+      <c r="O31" t="n">
+        <v>189</v>
+      </c>
+      <c r="P31" t="n">
+        <v>12150</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>9000</v>
+      </c>
+      <c r="R31" t="n">
+        <v>27</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="s"/>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
+      <c r="Z31" t="s"/>
+      <c r="AA31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD31" t="s"/>
+      <c r="AE31" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG31" t="s"/>
+      <c r="AH31" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>310</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38">
+      <c r="A32" t="s">
+        <v>312</v>
+      </c>
+      <c r="B32" t="s">
+        <v>313</v>
+      </c>
+      <c r="C32" t="s"/>
+      <c r="D32" t="s">
+        <v>314</v>
+      </c>
+      <c r="E32" t="s">
+        <v>315</v>
+      </c>
+      <c r="F32" t="s">
+        <v>316</v>
+      </c>
+      <c r="G32" t="s">
+        <v>232</v>
+      </c>
+      <c r="H32" t="s">
+        <v>317</v>
+      </c>
+      <c r="I32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" t="s"/>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="s"/>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="s"/>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s"/>
+      <c r="Z32" t="s"/>
+      <c r="AA32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD32" t="s"/>
+      <c r="AE32" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>319</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38">
+      <c r="A33" t="s">
+        <v>321</v>
+      </c>
+      <c r="B33" t="s">
+        <v>322</v>
+      </c>
+      <c r="C33" t="s"/>
+      <c r="D33" t="s">
+        <v>323</v>
+      </c>
+      <c r="E33" t="s">
+        <v>324</v>
+      </c>
+      <c r="F33" t="s">
+        <v>325</v>
+      </c>
+      <c r="G33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>137</v>
+      </c>
+      <c r="K33" t="s">
+        <v>261</v>
+      </c>
+      <c r="L33" t="s">
+        <v>326</v>
+      </c>
+      <c r="M33" t="s">
+        <v>140</v>
+      </c>
+      <c r="N33" t="s">
+        <v>140</v>
+      </c>
+      <c r="O33" t="n">
+        <v>25</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>20</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="s"/>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+      <c r="Z33" t="s"/>
+      <c r="AA33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD33" t="s"/>
+      <c r="AE33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG33" t="s"/>
+      <c r="AH33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ33" t="s"/>
+      <c r="AK33" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38">
+      <c r="A34" t="s">
+        <v>331</v>
+      </c>
+      <c r="B34" t="s">
+        <v>332</v>
+      </c>
+      <c r="C34" t="s"/>
+      <c r="D34" t="s">
+        <v>333</v>
+      </c>
+      <c r="E34" t="s">
+        <v>334</v>
+      </c>
+      <c r="F34" t="s">
+        <v>335</v>
+      </c>
+      <c r="G34" t="s">
+        <v>240</v>
+      </c>
+      <c r="H34" t="s">
+        <v>336</v>
+      </c>
+      <c r="I34" t="s">
+        <v>337</v>
+      </c>
+      <c r="J34" t="s"/>
+      <c r="K34" t="s">
+        <v>138</v>
+      </c>
+      <c r="L34" t="s"/>
+      <c r="M34" t="s"/>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="s"/>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+      <c r="Z34" t="s"/>
+      <c r="AA34" t="s"/>
+      <c r="AB34" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD34" t="s"/>
+      <c r="AE34" t="s">
+        <v>340</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>341</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38">
+      <c r="A35" t="s">
+        <v>331</v>
+      </c>
+      <c r="B35" t="s">
+        <v>332</v>
+      </c>
+      <c r="C35" t="s"/>
+      <c r="D35" t="s">
+        <v>333</v>
+      </c>
+      <c r="E35" t="s">
+        <v>334</v>
+      </c>
+      <c r="F35" t="s">
+        <v>335</v>
+      </c>
+      <c r="G35" t="s">
+        <v>240</v>
+      </c>
+      <c r="H35" t="s">
+        <v>343</v>
+      </c>
+      <c r="I35" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35" t="s"/>
+      <c r="K35" t="s">
+        <v>138</v>
+      </c>
+      <c r="L35" t="s"/>
+      <c r="M35" t="s"/>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="s"/>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
+      <c r="Z35" t="s"/>
+      <c r="AA35" t="s"/>
+      <c r="AB35" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>345</v>
+      </c>
+      <c r="AD35" t="s"/>
+      <c r="AE35" t="s">
+        <v>340</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>346</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38">
+      <c r="A36" t="s">
+        <v>331</v>
+      </c>
+      <c r="B36" t="s">
+        <v>332</v>
+      </c>
+      <c r="C36" t="s"/>
+      <c r="D36" t="s">
+        <v>333</v>
+      </c>
+      <c r="E36" t="s">
+        <v>334</v>
+      </c>
+      <c r="F36" t="s">
+        <v>335</v>
+      </c>
+      <c r="G36" t="s">
+        <v>240</v>
+      </c>
+      <c r="H36" t="s">
+        <v>348</v>
+      </c>
+      <c r="I36" t="s">
+        <v>349</v>
+      </c>
+      <c r="J36" t="s"/>
+      <c r="K36" t="s">
+        <v>138</v>
+      </c>
+      <c r="L36" t="s"/>
+      <c r="M36" t="s"/>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="s"/>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+      <c r="Z36" t="s"/>
+      <c r="AA36" t="s"/>
+      <c r="AB36" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>350</v>
+      </c>
+      <c r="AD36" t="s"/>
+      <c r="AE36" t="s">
+        <v>340</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG36" t="s"/>
+      <c r="AH36" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>351</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38">
+      <c r="A37" t="s">
+        <v>353</v>
+      </c>
+      <c r="B37" t="s">
+        <v>354</v>
+      </c>
+      <c r="C37" t="s">
+        <v>331</v>
+      </c>
+      <c r="D37" t="s">
+        <v>355</v>
+      </c>
+      <c r="E37" t="s">
+        <v>356</v>
+      </c>
+      <c r="F37" t="s">
+        <v>357</v>
+      </c>
+      <c r="G37" t="s">
+        <v>240</v>
+      </c>
+      <c r="H37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>184</v>
+      </c>
+      <c r="K37" t="s">
+        <v>261</v>
+      </c>
+      <c r="L37" t="s">
+        <v>358</v>
+      </c>
+      <c r="M37" t="s">
+        <v>140</v>
+      </c>
+      <c r="N37" t="s">
+        <v>140</v>
+      </c>
+      <c r="O37" t="n">
+        <v>8</v>
+      </c>
+      <c r="P37" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>60000</v>
+      </c>
+      <c r="R37" t="n">
+        <v>30</v>
+      </c>
+      <c r="S37" t="n">
+        <v>30</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="s"/>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z37" t="s"/>
+      <c r="AA37" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD37" t="s"/>
+      <c r="AE37" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38">
+      <c r="A38" t="s">
+        <v>353</v>
+      </c>
+      <c r="B38" t="s">
+        <v>354</v>
+      </c>
+      <c r="C38" t="s">
+        <v>331</v>
+      </c>
+      <c r="D38" t="s">
+        <v>355</v>
+      </c>
+      <c r="E38" t="s">
+        <v>356</v>
+      </c>
+      <c r="F38" t="s">
+        <v>357</v>
+      </c>
+      <c r="G38" t="s">
+        <v>240</v>
+      </c>
+      <c r="H38" t="s">
+        <v>247</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>184</v>
+      </c>
+      <c r="K38" t="s">
+        <v>261</v>
+      </c>
+      <c r="L38" t="s">
+        <v>358</v>
+      </c>
+      <c r="M38" t="s">
+        <v>140</v>
+      </c>
+      <c r="N38" t="s">
+        <v>140</v>
+      </c>
+      <c r="O38" t="n">
+        <v>8</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>38000</v>
+      </c>
+      <c r="R38" t="n">
+        <v>19</v>
+      </c>
+      <c r="S38" t="n">
+        <v>19</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="s"/>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z38" t="s"/>
+      <c r="AA38" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38">
+      <c r="A39" t="s">
+        <v>353</v>
+      </c>
+      <c r="B39" t="s">
+        <v>354</v>
+      </c>
+      <c r="C39" t="s">
+        <v>331</v>
+      </c>
+      <c r="D39" t="s">
+        <v>355</v>
+      </c>
+      <c r="E39" t="s">
+        <v>356</v>
+      </c>
+      <c r="F39" t="s">
+        <v>357</v>
+      </c>
+      <c r="G39" t="s">
+        <v>240</v>
+      </c>
+      <c r="H39" t="s">
+        <v>253</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>184</v>
+      </c>
+      <c r="K39" t="s">
+        <v>261</v>
+      </c>
+      <c r="L39" t="s">
+        <v>358</v>
+      </c>
+      <c r="M39" t="s">
+        <v>140</v>
+      </c>
+      <c r="N39" t="s">
+        <v>140</v>
+      </c>
+      <c r="O39" t="n">
+        <v>8</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>38000</v>
+      </c>
+      <c r="R39" t="n">
+        <v>19</v>
+      </c>
+      <c r="S39" t="n">
+        <v>19</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="s"/>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z39" t="s"/>
+      <c r="AA39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD39" t="s"/>
+      <c r="AE39" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>254</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38">
+      <c r="A40" t="s">
+        <v>353</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="s"/>
+      <c r="E40" t="s"/>
+      <c r="F40" t="s"/>
+      <c r="G40" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" t="s">
+        <v>363</v>
+      </c>
+      <c r="I40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" t="s"/>
+      <c r="K40" t="s">
+        <v>159</v>
+      </c>
+      <c r="L40" t="s"/>
+      <c r="M40" t="s"/>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="s"/>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+      <c r="Z40" t="s"/>
+      <c r="AA40" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB40" t="s"/>
+      <c r="AC40" t="s"/>
+      <c r="AD40" t="s"/>
+      <c r="AE40" t="s">
+        <v>364</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>365</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38">
+      <c r="A41" t="s">
+        <v>353</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="s"/>
+      <c r="E41" t="s"/>
+      <c r="F41" t="s"/>
+      <c r="G41" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" t="s">
+        <v>367</v>
+      </c>
+      <c r="I41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" t="s"/>
+      <c r="K41" t="s">
+        <v>159</v>
+      </c>
+      <c r="L41" t="s"/>
+      <c r="M41" t="s"/>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="s"/>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+      <c r="Z41" t="s"/>
+      <c r="AA41" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB41" t="s"/>
+      <c r="AC41" t="s"/>
+      <c r="AD41" t="s"/>
+      <c r="AE41" t="s">
+        <v>364</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>368</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38">
+      <c r="A42" t="s">
+        <v>353</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="s"/>
+      <c r="E42" t="s"/>
+      <c r="F42" t="s"/>
+      <c r="G42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" t="s">
+        <v>370</v>
+      </c>
+      <c r="I42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" t="s"/>
+      <c r="K42" t="s">
+        <v>159</v>
+      </c>
+      <c r="L42" t="s"/>
+      <c r="M42" t="s"/>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="s"/>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+      <c r="Z42" t="s"/>
+      <c r="AA42" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB42" t="s"/>
+      <c r="AC42" t="s"/>
+      <c r="AD42" t="s"/>
+      <c r="AE42" t="s">
+        <v>364</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>371</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38">
+      <c r="A43" t="s">
+        <v>353</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="s"/>
+      <c r="E43" t="s"/>
+      <c r="F43" t="s"/>
+      <c r="G43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H43" t="s">
+        <v>373</v>
+      </c>
+      <c r="I43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" t="s"/>
+      <c r="K43" t="s">
+        <v>159</v>
+      </c>
+      <c r="L43" t="s"/>
+      <c r="M43" t="s"/>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="s"/>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+      <c r="Z43" t="s"/>
+      <c r="AA43" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB43" t="s"/>
+      <c r="AC43" t="s"/>
+      <c r="AD43" t="s"/>
+      <c r="AE43" t="s">
+        <v>364</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>374</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38">
+      <c r="A44" t="s">
+        <v>353</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="s"/>
+      <c r="E44" t="s"/>
+      <c r="F44" t="s"/>
+      <c r="G44" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" t="s">
+        <v>376</v>
+      </c>
+      <c r="I44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" t="s"/>
+      <c r="K44" t="s">
+        <v>159</v>
+      </c>
+      <c r="L44" t="s"/>
+      <c r="M44" t="s"/>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="s"/>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+      <c r="Z44" t="s"/>
+      <c r="AA44" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB44" t="s"/>
+      <c r="AC44" t="s"/>
+      <c r="AD44" t="s"/>
+      <c r="AE44" t="s">
+        <v>364</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>377</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38">
+      <c r="A45" t="s">
+        <v>353</v>
+      </c>
+      <c r="B45" t="s">
+        <v>379</v>
+      </c>
+      <c r="C45" t="s">
+        <v>380</v>
+      </c>
+      <c r="D45" t="s">
+        <v>355</v>
+      </c>
+      <c r="E45" t="s">
+        <v>356</v>
+      </c>
+      <c r="F45" t="s">
+        <v>357</v>
+      </c>
+      <c r="G45" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45" t="s">
+        <v>363</v>
+      </c>
+      <c r="I45" t="s">
+        <v>78</v>
+      </c>
+      <c r="J45" t="s">
+        <v>184</v>
+      </c>
+      <c r="K45" t="s">
+        <v>261</v>
+      </c>
+      <c r="L45" t="s">
+        <v>358</v>
+      </c>
+      <c r="M45" t="s">
+        <v>140</v>
+      </c>
+      <c r="N45" t="s">
+        <v>140</v>
+      </c>
+      <c r="O45" t="n">
+        <v>8</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>56665</v>
+      </c>
+      <c r="R45" t="n">
+        <v>18</v>
+      </c>
+      <c r="S45" t="n">
+        <v>18</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>365</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38">
+      <c r="A46" t="s">
+        <v>353</v>
+      </c>
+      <c r="B46" t="s">
+        <v>379</v>
+      </c>
+      <c r="C46" t="s">
+        <v>380</v>
+      </c>
+      <c r="D46" t="s">
+        <v>355</v>
+      </c>
+      <c r="E46" t="s">
+        <v>356</v>
+      </c>
+      <c r="F46" t="s">
+        <v>357</v>
+      </c>
+      <c r="G46" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" t="s">
+        <v>370</v>
+      </c>
+      <c r="I46" t="s">
+        <v>78</v>
+      </c>
+      <c r="J46" t="s">
+        <v>184</v>
+      </c>
+      <c r="K46" t="s">
+        <v>261</v>
+      </c>
+      <c r="L46" t="s">
+        <v>358</v>
+      </c>
+      <c r="M46" t="s">
+        <v>140</v>
+      </c>
+      <c r="N46" t="s">
+        <v>140</v>
+      </c>
+      <c r="O46" t="n">
+        <v>8</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>16</v>
+      </c>
+      <c r="S46" t="n">
+        <v>16</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD46" t="s"/>
+      <c r="AE46" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>371</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38">
+      <c r="A47" t="s">
+        <v>353</v>
+      </c>
+      <c r="B47" t="s">
+        <v>379</v>
+      </c>
+      <c r="C47" t="s">
+        <v>380</v>
+      </c>
+      <c r="D47" t="s">
+        <v>355</v>
+      </c>
+      <c r="E47" t="s">
+        <v>356</v>
+      </c>
+      <c r="F47" t="s">
+        <v>357</v>
+      </c>
+      <c r="G47" t="s">
+        <v>64</v>
+      </c>
+      <c r="H47" t="s">
+        <v>367</v>
+      </c>
+      <c r="I47" t="s">
+        <v>78</v>
+      </c>
+      <c r="J47" t="s">
+        <v>184</v>
+      </c>
+      <c r="K47" t="s">
+        <v>261</v>
+      </c>
+      <c r="L47" t="s">
+        <v>358</v>
+      </c>
+      <c r="M47" t="s">
+        <v>140</v>
+      </c>
+      <c r="N47" t="s">
+        <v>140</v>
+      </c>
+      <c r="O47" t="n">
+        <v>8</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>46060</v>
+      </c>
+      <c r="R47" t="n">
+        <v>18</v>
+      </c>
+      <c r="S47" t="n">
+        <v>18</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>384</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>384</v>
+      </c>
+      <c r="AD47" t="s"/>
+      <c r="AE47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>368</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38">
+      <c r="A48" t="s">
+        <v>353</v>
+      </c>
+      <c r="B48" t="s">
+        <v>379</v>
+      </c>
+      <c r="C48" t="s">
+        <v>380</v>
+      </c>
+      <c r="D48" t="s">
+        <v>355</v>
+      </c>
+      <c r="E48" t="s">
+        <v>356</v>
+      </c>
+      <c r="F48" t="s">
+        <v>357</v>
+      </c>
+      <c r="G48" t="s">
+        <v>64</v>
+      </c>
+      <c r="H48" t="s">
+        <v>373</v>
+      </c>
+      <c r="I48" t="s">
+        <v>78</v>
+      </c>
+      <c r="J48" t="s">
+        <v>184</v>
+      </c>
+      <c r="K48" t="s">
+        <v>261</v>
+      </c>
+      <c r="L48" t="s">
+        <v>358</v>
+      </c>
+      <c r="M48" t="s">
+        <v>140</v>
+      </c>
+      <c r="N48" t="s">
+        <v>140</v>
+      </c>
+      <c r="O48" t="n">
+        <v>8</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>57765</v>
+      </c>
+      <c r="R48" t="n">
+        <v>12</v>
+      </c>
+      <c r="S48" t="n">
+        <v>12</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>374</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38">
+      <c r="A49" t="s">
+        <v>353</v>
+      </c>
+      <c r="B49" t="s">
+        <v>379</v>
+      </c>
+      <c r="C49" t="s">
+        <v>380</v>
+      </c>
+      <c r="D49" t="s">
+        <v>355</v>
+      </c>
+      <c r="E49" t="s">
+        <v>356</v>
+      </c>
+      <c r="F49" t="s">
+        <v>357</v>
+      </c>
+      <c r="G49" t="s">
+        <v>64</v>
+      </c>
+      <c r="H49" t="s">
+        <v>376</v>
+      </c>
+      <c r="I49" t="s">
+        <v>78</v>
+      </c>
+      <c r="J49" t="s">
+        <v>184</v>
+      </c>
+      <c r="K49" t="s">
+        <v>261</v>
+      </c>
+      <c r="L49" t="s">
+        <v>358</v>
+      </c>
+      <c r="M49" t="s">
+        <v>140</v>
+      </c>
+      <c r="N49" t="s">
+        <v>140</v>
+      </c>
+      <c r="O49" t="n">
+        <v>8</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>18</v>
+      </c>
+      <c r="S49" t="n">
+        <v>18</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD49" t="s"/>
+      <c r="AE49" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>377</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38">
+      <c r="A50" t="s">
+        <v>389</v>
+      </c>
+      <c r="B50" t="s">
+        <v>390</v>
+      </c>
+      <c r="C50" t="s"/>
+      <c r="D50" t="s">
+        <v>391</v>
+      </c>
+      <c r="E50" t="s">
+        <v>392</v>
+      </c>
+      <c r="F50" t="s"/>
+      <c r="G50" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" t="s">
+        <v>393</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s"/>
+      <c r="K50" t="s">
+        <v>159</v>
+      </c>
+      <c r="L50" t="s"/>
+      <c r="M50" t="s"/>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="s"/>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s"/>
+      <c r="Z50" t="s"/>
+      <c r="AA50" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC50" t="s"/>
+      <c r="AD50" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG50" t="s"/>
+      <c r="AH50" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>396</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38">
+      <c r="A51" t="s">
+        <v>389</v>
+      </c>
+      <c r="B51" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" t="s">
+        <v>398</v>
+      </c>
+      <c r="D51" t="s">
+        <v>391</v>
+      </c>
+      <c r="E51" t="s">
+        <v>392</v>
+      </c>
+      <c r="F51" t="s"/>
+      <c r="G51" t="s">
+        <v>76</v>
+      </c>
+      <c r="H51" t="s">
+        <v>399</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>137</v>
+      </c>
+      <c r="K51" t="s">
+        <v>159</v>
+      </c>
+      <c r="L51" t="s"/>
+      <c r="M51" t="s">
+        <v>400</v>
+      </c>
+      <c r="N51" t="s">
+        <v>140</v>
+      </c>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="s"/>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+      <c r="Z51" t="s"/>
+      <c r="AA51" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB51" t="s"/>
+      <c r="AC51" t="s"/>
+      <c r="AD51" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG51" t="s"/>
+      <c r="AH51" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>402</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38">
+      <c r="A52" t="s">
+        <v>389</v>
+      </c>
+      <c r="B52" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" t="s">
+        <v>398</v>
+      </c>
+      <c r="D52" t="s">
+        <v>391</v>
+      </c>
+      <c r="E52" t="s">
+        <v>392</v>
+      </c>
+      <c r="F52" t="s"/>
+      <c r="G52" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s">
+        <v>404</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>137</v>
+      </c>
+      <c r="K52" t="s">
+        <v>159</v>
+      </c>
+      <c r="L52" t="s"/>
+      <c r="M52" t="s">
+        <v>400</v>
+      </c>
+      <c r="N52" t="s">
+        <v>140</v>
+      </c>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="s"/>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s"/>
+      <c r="Z52" t="s"/>
+      <c r="AA52" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB52" t="s"/>
+      <c r="AC52" t="s"/>
+      <c r="AD52" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG52" t="s"/>
+      <c r="AH52" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>406</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38">
+      <c r="A53" t="s">
+        <v>389</v>
+      </c>
+      <c r="B53" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" t="s">
+        <v>398</v>
+      </c>
+      <c r="D53" t="s">
+        <v>391</v>
+      </c>
+      <c r="E53" t="s">
+        <v>392</v>
+      </c>
+      <c r="F53" t="s"/>
+      <c r="G53" t="s">
+        <v>76</v>
+      </c>
+      <c r="H53" t="s">
+        <v>399</v>
+      </c>
+      <c r="I53" t="s">
+        <v>408</v>
+      </c>
+      <c r="J53" t="s">
+        <v>137</v>
+      </c>
+      <c r="K53" t="s">
+        <v>261</v>
+      </c>
+      <c r="L53" t="s"/>
+      <c r="M53" t="s"/>
+      <c r="N53" t="s">
+        <v>140</v>
+      </c>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="s"/>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+      <c r="Z53" t="s"/>
+      <c r="AA53" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB53" t="s"/>
+      <c r="AC53" t="s"/>
+      <c r="AD53" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG53" t="s"/>
+      <c r="AH53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>402</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38">
+      <c r="A54" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="s"/>
+      <c r="E54" t="s"/>
+      <c r="F54" t="s"/>
+      <c r="G54" t="s">
+        <v>240</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" t="s"/>
+      <c r="K54" t="s">
+        <v>261</v>
+      </c>
+      <c r="L54" t="s"/>
+      <c r="M54" t="s"/>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>8500</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>255000</v>
+      </c>
+      <c r="R54" t="n">
+        <v>30</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="s"/>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+      <c r="Z54" t="s"/>
+      <c r="AA54" t="s"/>
+      <c r="AB54" t="s"/>
+      <c r="AC54" t="s"/>
+      <c r="AD54" t="s"/>
+      <c r="AE54" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG54" t="s"/>
+      <c r="AH54" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ54" t="s"/>
+      <c r="AK54" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38">
+      <c r="A55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="s"/>
+      <c r="E55" t="s"/>
+      <c r="F55" t="s"/>
+      <c r="G55" t="s">
+        <v>240</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" t="s"/>
+      <c r="K55" t="s">
+        <v>159</v>
+      </c>
+      <c r="L55" t="s"/>
+      <c r="M55" t="s"/>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>300000</v>
+      </c>
+      <c r="R55" t="n">
+        <v>300</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="s"/>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+      <c r="Z55" t="s"/>
+      <c r="AA55" t="s"/>
+      <c r="AB55" t="s"/>
+      <c r="AC55" t="s"/>
+      <c r="AD55" t="s"/>
+      <c r="AE55" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG55" t="s"/>
+      <c r="AH55" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ55" t="s"/>
+      <c r="AK55" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38">
+      <c r="A56" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="s"/>
+      <c r="E56" t="s"/>
+      <c r="F56" t="s"/>
+      <c r="G56" t="s">
+        <v>240</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56" t="s"/>
+      <c r="K56" t="s">
+        <v>138</v>
+      </c>
+      <c r="L56" t="s"/>
+      <c r="M56" t="s"/>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2700</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="s"/>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+      <c r="Z56" t="s"/>
+      <c r="AA56" t="s"/>
+      <c r="AB56" t="s"/>
+      <c r="AC56" t="s"/>
+      <c r="AD56" t="s"/>
+      <c r="AE56" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG56" t="s"/>
+      <c r="AH56" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ56" t="s"/>
+      <c r="AK56" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38">
+      <c r="A57" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="s"/>
+      <c r="E57" t="s"/>
+      <c r="F57" t="s"/>
+      <c r="G57" t="s">
+        <v>414</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57" t="s"/>
+      <c r="K57" t="s">
+        <v>261</v>
+      </c>
+      <c r="L57" t="s"/>
+      <c r="M57" t="s"/>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>8500</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>255000</v>
+      </c>
+      <c r="R57" t="n">
+        <v>30</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="s"/>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+      <c r="Z57" t="s"/>
+      <c r="AA57" t="s"/>
+      <c r="AB57" t="s"/>
+      <c r="AC57" t="s"/>
+      <c r="AD57" t="s"/>
+      <c r="AE57" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG57" t="s"/>
+      <c r="AH57" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>415</v>
+      </c>
+      <c r="AJ57" t="s"/>
+      <c r="AK57" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38">
+      <c r="A58" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="s"/>
+      <c r="E58" t="s"/>
+      <c r="F58" t="s"/>
+      <c r="G58" t="s">
+        <v>414</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>32</v>
+      </c>
+      <c r="J58" t="s"/>
+      <c r="K58" t="s">
+        <v>159</v>
+      </c>
+      <c r="L58" t="s"/>
+      <c r="M58" t="s"/>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>150000</v>
+      </c>
+      <c r="R58" t="n">
+        <v>150</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="s"/>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+      <c r="Z58" t="s"/>
+      <c r="AA58" t="s"/>
+      <c r="AB58" t="s"/>
+      <c r="AC58" t="s"/>
+      <c r="AD58" t="s"/>
+      <c r="AE58" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG58" t="s"/>
+      <c r="AH58" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>415</v>
+      </c>
+      <c r="AJ58" t="s"/>
+      <c r="AK58" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38">
+      <c r="A59" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="s"/>
+      <c r="E59" t="s"/>
+      <c r="F59" t="s"/>
+      <c r="G59" t="s">
+        <v>414</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>32</v>
+      </c>
+      <c r="J59" t="s"/>
+      <c r="K59" t="s">
+        <v>138</v>
+      </c>
+      <c r="L59" t="s"/>
+      <c r="M59" t="s"/>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>675000</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1350</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="s"/>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+      <c r="Z59" t="s"/>
+      <c r="AA59" t="s"/>
+      <c r="AB59" t="s"/>
+      <c r="AC59" t="s"/>
+      <c r="AD59" t="s"/>
+      <c r="AE59" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG59" t="s"/>
+      <c r="AH59" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>415</v>
+      </c>
+      <c r="AJ59" t="s"/>
+      <c r="AK59" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38">
+      <c r="A60" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="s"/>
+      <c r="E60" t="s"/>
+      <c r="F60" t="s"/>
+      <c r="G60" t="s">
+        <v>419</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" t="s"/>
+      <c r="K60" t="s">
+        <v>261</v>
+      </c>
+      <c r="L60" t="s"/>
+      <c r="M60" t="s"/>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>8500</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>255000</v>
+      </c>
+      <c r="R60" t="n">
+        <v>30</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="s"/>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
+      <c r="Z60" t="s"/>
+      <c r="AA60" t="s"/>
+      <c r="AB60" t="s"/>
+      <c r="AC60" t="s"/>
+      <c r="AD60" t="s"/>
+      <c r="AE60" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG60" t="s"/>
+      <c r="AH60" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ60" t="s"/>
+      <c r="AK60" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38">
+      <c r="A61" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="s"/>
+      <c r="E61" t="s"/>
+      <c r="F61" t="s"/>
+      <c r="G61" t="s">
+        <v>419</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" t="s"/>
+      <c r="K61" t="s">
+        <v>159</v>
+      </c>
+      <c r="L61" t="s"/>
+      <c r="M61" t="s"/>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>150000</v>
+      </c>
+      <c r="R61" t="n">
+        <v>150</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="s"/>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+      <c r="Z61" t="s"/>
+      <c r="AA61" t="s"/>
+      <c r="AB61" t="s"/>
+      <c r="AC61" t="s"/>
+      <c r="AD61" t="s"/>
+      <c r="AE61" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG61" t="s"/>
+      <c r="AH61" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ61" t="s"/>
+      <c r="AK61" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38">
+      <c r="A62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="s"/>
+      <c r="E62" t="s"/>
+      <c r="F62" t="s"/>
+      <c r="G62" t="s">
+        <v>419</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>32</v>
+      </c>
+      <c r="J62" t="s"/>
+      <c r="K62" t="s">
+        <v>138</v>
+      </c>
+      <c r="L62" t="s"/>
+      <c r="M62" t="s"/>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>675000</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1350</v>
+      </c>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="s"/>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s"/>
+      <c r="Z62" t="s"/>
+      <c r="AA62" t="s"/>
+      <c r="AB62" t="s"/>
+      <c r="AC62" t="s"/>
+      <c r="AD62" t="s"/>
+      <c r="AE62" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG62" t="s"/>
+      <c r="AH62" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ62" t="s"/>
+      <c r="AK62" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38">
+      <c r="A63" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" t="s">
+        <v>424</v>
+      </c>
+      <c r="C63" t="s"/>
+      <c r="D63" t="s">
+        <v>425</v>
+      </c>
+      <c r="E63" t="s">
+        <v>426</v>
+      </c>
+      <c r="F63" t="s">
+        <v>427</v>
+      </c>
+      <c r="G63" t="s">
+        <v>232</v>
+      </c>
+      <c r="H63" t="s">
+        <v>428</v>
+      </c>
+      <c r="I63" t="s">
+        <v>78</v>
+      </c>
+      <c r="J63" t="s">
+        <v>137</v>
+      </c>
+      <c r="K63" t="s">
+        <v>261</v>
+      </c>
+      <c r="L63" t="s">
+        <v>429</v>
+      </c>
+      <c r="M63" t="s">
+        <v>140</v>
+      </c>
+      <c r="N63" t="s">
+        <v>140</v>
+      </c>
+      <c r="O63" t="n">
+        <v>32</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>30</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="s"/>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+      <c r="Z63" t="s"/>
+      <c r="AA63" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD63" t="s"/>
+      <c r="AE63" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG63" t="s"/>
+      <c r="AH63" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>431</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="64" spans="1:38">
+      <c r="A64" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" t="s">
+        <v>424</v>
+      </c>
+      <c r="C64" t="s"/>
+      <c r="D64" t="s">
+        <v>425</v>
+      </c>
+      <c r="E64" t="s">
+        <v>426</v>
+      </c>
+      <c r="F64" t="s">
+        <v>433</v>
+      </c>
+      <c r="G64" t="s">
+        <v>232</v>
+      </c>
+      <c r="H64" t="s">
+        <v>434</v>
+      </c>
+      <c r="I64" t="s">
+        <v>78</v>
+      </c>
+      <c r="J64" t="s">
+        <v>137</v>
+      </c>
+      <c r="K64" t="s">
+        <v>261</v>
+      </c>
+      <c r="L64" t="s">
+        <v>429</v>
+      </c>
+      <c r="M64" t="s">
+        <v>140</v>
+      </c>
+      <c r="N64" t="s">
+        <v>140</v>
+      </c>
+      <c r="O64" t="n">
+        <v>32</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>30</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="s"/>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+      <c r="Z64" t="s"/>
+      <c r="AA64" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD64" t="s"/>
+      <c r="AE64" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>435</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="65" spans="1:38">
+      <c r="A65" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" t="s">
+        <v>424</v>
+      </c>
+      <c r="C65" t="s"/>
+      <c r="D65" t="s">
+        <v>425</v>
+      </c>
+      <c r="E65" t="s">
+        <v>426</v>
+      </c>
+      <c r="F65" t="s">
+        <v>437</v>
+      </c>
+      <c r="G65" t="s">
+        <v>232</v>
+      </c>
+      <c r="H65" t="s">
+        <v>438</v>
+      </c>
+      <c r="I65" t="s">
+        <v>78</v>
+      </c>
+      <c r="J65" t="s">
+        <v>137</v>
+      </c>
+      <c r="K65" t="s">
+        <v>261</v>
+      </c>
+      <c r="L65" t="s">
+        <v>429</v>
+      </c>
+      <c r="M65" t="s">
+        <v>140</v>
+      </c>
+      <c r="N65" t="s">
+        <v>140</v>
+      </c>
+      <c r="O65" t="n">
+        <v>32</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>30</v>
+      </c>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="s"/>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
+      <c r="Z65" t="s"/>
+      <c r="AA65" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD65" t="s"/>
+      <c r="AE65" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>439</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="66" spans="1:38">
+      <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>424</v>
+      </c>
+      <c r="C66" t="s"/>
+      <c r="D66" t="s">
+        <v>425</v>
+      </c>
+      <c r="E66" t="s">
+        <v>426</v>
+      </c>
+      <c r="F66" t="s">
+        <v>441</v>
+      </c>
+      <c r="G66" t="s">
+        <v>232</v>
+      </c>
+      <c r="H66" t="s">
+        <v>442</v>
+      </c>
+      <c r="I66" t="s">
+        <v>78</v>
+      </c>
+      <c r="J66" t="s">
+        <v>137</v>
+      </c>
+      <c r="K66" t="s">
+        <v>261</v>
+      </c>
+      <c r="L66" t="s">
+        <v>429</v>
+      </c>
+      <c r="M66" t="s">
+        <v>140</v>
+      </c>
+      <c r="N66" t="s">
+        <v>140</v>
+      </c>
+      <c r="O66" t="n">
+        <v>32</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="n">
+        <v>30</v>
+      </c>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="s"/>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+      <c r="Z66" t="s"/>
+      <c r="AA66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD66" t="s"/>
+      <c r="AE66" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG66" t="s"/>
+      <c r="AH66" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>443</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="67" spans="1:38">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>424</v>
+      </c>
+      <c r="C67" t="s"/>
+      <c r="D67" t="s">
+        <v>425</v>
+      </c>
+      <c r="E67" t="s">
+        <v>426</v>
+      </c>
+      <c r="F67" t="s">
+        <v>427</v>
+      </c>
+      <c r="G67" t="s">
+        <v>232</v>
+      </c>
+      <c r="H67" t="s">
+        <v>428</v>
+      </c>
+      <c r="I67" t="s">
+        <v>78</v>
+      </c>
+      <c r="J67" t="s">
+        <v>137</v>
+      </c>
+      <c r="K67" t="s">
+        <v>159</v>
+      </c>
+      <c r="L67" t="s">
+        <v>429</v>
+      </c>
+      <c r="M67" t="s">
+        <v>140</v>
+      </c>
+      <c r="N67" t="s">
+        <v>140</v>
+      </c>
+      <c r="O67" t="n">
+        <v>16</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="s"/>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+      <c r="Z67" t="s"/>
+      <c r="AA67" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB67" t="s"/>
+      <c r="AC67" t="s"/>
+      <c r="AD67" t="s">
+        <v>445</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG67" t="s"/>
+      <c r="AH67" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ67" t="s">
+        <v>431</v>
+      </c>
+      <c r="AK67" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="68" spans="1:38">
+      <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>424</v>
+      </c>
+      <c r="C68" t="s"/>
+      <c r="D68" t="s">
+        <v>425</v>
+      </c>
+      <c r="E68" t="s">
+        <v>426</v>
+      </c>
+      <c r="F68" t="s">
+        <v>433</v>
+      </c>
+      <c r="G68" t="s">
+        <v>232</v>
+      </c>
+      <c r="H68" t="s">
+        <v>434</v>
+      </c>
+      <c r="I68" t="s">
+        <v>78</v>
+      </c>
+      <c r="J68" t="s">
+        <v>137</v>
+      </c>
+      <c r="K68" t="s">
+        <v>159</v>
+      </c>
+      <c r="L68" t="s">
+        <v>429</v>
+      </c>
+      <c r="M68" t="s">
+        <v>140</v>
+      </c>
+      <c r="N68" t="s">
+        <v>140</v>
+      </c>
+      <c r="O68" t="n">
+        <v>16</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="s"/>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+      <c r="Z68" t="s"/>
+      <c r="AA68" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB68" t="s"/>
+      <c r="AC68" t="s"/>
+      <c r="AD68" t="s"/>
+      <c r="AE68" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>435</v>
+      </c>
+      <c r="AK68" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="69" spans="1:38">
+      <c r="A69" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" t="s">
+        <v>424</v>
+      </c>
+      <c r="C69" t="s"/>
+      <c r="D69" t="s">
+        <v>425</v>
+      </c>
+      <c r="E69" t="s">
+        <v>426</v>
+      </c>
+      <c r="F69" t="s">
+        <v>437</v>
+      </c>
+      <c r="G69" t="s">
+        <v>232</v>
+      </c>
+      <c r="H69" t="s">
+        <v>438</v>
+      </c>
+      <c r="I69" t="s">
+        <v>78</v>
+      </c>
+      <c r="J69" t="s">
+        <v>137</v>
+      </c>
+      <c r="K69" t="s">
+        <v>159</v>
+      </c>
+      <c r="L69" t="s">
+        <v>429</v>
+      </c>
+      <c r="M69" t="s">
+        <v>140</v>
+      </c>
+      <c r="N69" t="s">
+        <v>140</v>
+      </c>
+      <c r="O69" t="n">
+        <v>16</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="s"/>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s"/>
+      <c r="Z69" t="s"/>
+      <c r="AA69" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB69" t="s"/>
+      <c r="AC69" t="s"/>
+      <c r="AD69" t="s"/>
+      <c r="AE69" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>439</v>
+      </c>
+      <c r="AK69" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="70" spans="1:38">
+      <c r="A70" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" t="s">
+        <v>424</v>
+      </c>
+      <c r="C70" t="s"/>
+      <c r="D70" t="s">
+        <v>425</v>
+      </c>
+      <c r="E70" t="s">
+        <v>426</v>
+      </c>
+      <c r="F70" t="s">
+        <v>441</v>
+      </c>
+      <c r="G70" t="s">
+        <v>232</v>
+      </c>
+      <c r="H70" t="s">
+        <v>442</v>
+      </c>
+      <c r="I70" t="s">
+        <v>78</v>
+      </c>
+      <c r="J70" t="s">
+        <v>137</v>
+      </c>
+      <c r="K70" t="s">
+        <v>159</v>
+      </c>
+      <c r="L70" t="s">
+        <v>429</v>
+      </c>
+      <c r="M70" t="s">
+        <v>140</v>
+      </c>
+      <c r="N70" t="s">
+        <v>140</v>
+      </c>
+      <c r="O70" t="n">
+        <v>16</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="s"/>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
+      <c r="Z70" t="s"/>
+      <c r="AA70" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB70" t="s"/>
+      <c r="AC70" t="s"/>
+      <c r="AD70" t="s"/>
+      <c r="AE70" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG70" t="s"/>
+      <c r="AH70" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>443</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="71" spans="1:38">
+      <c r="A71" t="s">
+        <v>450</v>
+      </c>
+      <c r="B71" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" t="s">
+        <v>451</v>
+      </c>
+      <c r="D71" t="s">
+        <v>452</v>
+      </c>
+      <c r="E71" t="s">
+        <v>453</v>
+      </c>
+      <c r="F71" t="s">
+        <v>454</v>
+      </c>
+      <c r="G71" t="s">
+        <v>232</v>
+      </c>
+      <c r="H71" t="s">
+        <v>455</v>
+      </c>
+      <c r="I71" t="s">
+        <v>78</v>
+      </c>
+      <c r="J71" t="s">
+        <v>137</v>
+      </c>
+      <c r="K71" t="s">
+        <v>159</v>
+      </c>
+      <c r="L71" t="s">
+        <v>456</v>
+      </c>
+      <c r="M71" t="s">
+        <v>140</v>
+      </c>
+      <c r="N71" t="s">
+        <v>140</v>
+      </c>
+      <c r="O71" t="n">
+        <v>120</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>60000</v>
+      </c>
+      <c r="R71" t="n">
+        <v>48</v>
+      </c>
+      <c r="S71" t="n">
+        <v>32</v>
+      </c>
+      <c r="T71" t="s">
+        <v>457</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="s"/>
+      <c r="Z71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>458</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>459</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>460</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>461</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>462</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG71" t="s"/>
+      <c r="AH71" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>463</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="72" spans="1:38">
+      <c r="A72" t="s">
+        <v>465</v>
+      </c>
+      <c r="B72" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72" t="s"/>
+      <c r="D72" t="s">
+        <v>466</v>
+      </c>
+      <c r="E72" t="s">
+        <v>467</v>
+      </c>
+      <c r="F72" t="s">
+        <v>468</v>
+      </c>
+      <c r="G72" t="s">
+        <v>64</v>
+      </c>
+      <c r="H72" t="s">
+        <v>469</v>
+      </c>
+      <c r="I72" t="s">
+        <v>78</v>
+      </c>
+      <c r="J72" t="s"/>
+      <c r="K72" t="s">
+        <v>159</v>
+      </c>
+      <c r="L72" t="s"/>
+      <c r="M72" t="s"/>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="s"/>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+      <c r="Z72" t="s"/>
+      <c r="AA72" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>470</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>471</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>472</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="73" spans="1:38">
+      <c r="A73" t="s">
+        <v>474</v>
+      </c>
+      <c r="B73" t="s">
+        <v>475</v>
+      </c>
+      <c r="C73" t="s">
+        <v>476</v>
+      </c>
+      <c r="D73" t="s">
+        <v>477</v>
+      </c>
+      <c r="E73" t="s">
+        <v>478</v>
+      </c>
+      <c r="F73" t="s">
+        <v>479</v>
+      </c>
+      <c r="G73" t="s">
+        <v>232</v>
+      </c>
+      <c r="H73" t="s">
+        <v>442</v>
+      </c>
+      <c r="I73" t="s">
+        <v>78</v>
+      </c>
+      <c r="J73" t="s">
+        <v>184</v>
+      </c>
+      <c r="K73" t="s">
+        <v>159</v>
+      </c>
+      <c r="L73" t="s">
+        <v>480</v>
+      </c>
+      <c r="M73" t="s">
+        <v>400</v>
+      </c>
+      <c r="N73" t="s">
+        <v>140</v>
+      </c>
+      <c r="O73" t="n">
+        <v>6</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>226493</v>
+      </c>
+      <c r="R73" t="n">
+        <v>818</v>
+      </c>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="s"/>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+      <c r="Z73" t="s"/>
+      <c r="AA73" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD73" t="s"/>
+      <c r="AE73" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG73" t="s"/>
+      <c r="AH73" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>443</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="74" spans="1:38">
+      <c r="A74" t="s">
+        <v>474</v>
+      </c>
+      <c r="B74" t="s">
+        <v>475</v>
+      </c>
+      <c r="C74" t="s">
+        <v>476</v>
+      </c>
+      <c r="D74" t="s">
+        <v>477</v>
+      </c>
+      <c r="E74" t="s">
+        <v>478</v>
+      </c>
+      <c r="F74" t="s">
+        <v>479</v>
+      </c>
+      <c r="G74" t="s">
+        <v>232</v>
+      </c>
+      <c r="H74" t="s">
+        <v>482</v>
+      </c>
+      <c r="I74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J74" t="s">
+        <v>184</v>
+      </c>
+      <c r="K74" t="s">
+        <v>159</v>
+      </c>
+      <c r="L74" t="s">
+        <v>480</v>
+      </c>
+      <c r="M74" t="s">
+        <v>400</v>
+      </c>
+      <c r="N74" t="s">
+        <v>140</v>
+      </c>
+      <c r="O74" t="n">
+        <v>6</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>226493</v>
+      </c>
+      <c r="R74" t="n">
+        <v>950</v>
+      </c>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="s"/>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
+      <c r="Z74" t="s"/>
+      <c r="AA74" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>483</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>483</v>
+      </c>
+      <c r="AD74" t="s"/>
+      <c r="AE74" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>484</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="75" spans="1:38">
+      <c r="A75" t="s">
+        <v>474</v>
+      </c>
+      <c r="B75" t="s">
+        <v>475</v>
+      </c>
+      <c r="C75" t="s">
+        <v>476</v>
+      </c>
+      <c r="D75" t="s">
+        <v>477</v>
+      </c>
+      <c r="E75" t="s">
+        <v>478</v>
+      </c>
+      <c r="F75" t="s">
+        <v>479</v>
+      </c>
+      <c r="G75" t="s">
+        <v>232</v>
+      </c>
+      <c r="H75" t="s">
+        <v>486</v>
+      </c>
+      <c r="I75" t="s">
+        <v>78</v>
+      </c>
+      <c r="J75" t="s">
+        <v>184</v>
+      </c>
+      <c r="K75" t="s">
+        <v>159</v>
+      </c>
+      <c r="L75" t="s">
+        <v>480</v>
+      </c>
+      <c r="M75" t="s">
+        <v>400</v>
+      </c>
+      <c r="N75" t="s">
+        <v>140</v>
+      </c>
+      <c r="O75" t="n">
+        <v>6</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>226493</v>
+      </c>
+      <c r="R75" t="n">
+        <v>857</v>
+      </c>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="s"/>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s"/>
+      <c r="Z75" t="s"/>
+      <c r="AA75" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>487</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>487</v>
+      </c>
+      <c r="AD75" t="s"/>
+      <c r="AE75" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG75" t="s"/>
+      <c r="AH75" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>488</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="76" spans="1:38">
+      <c r="A76" t="s">
+        <v>474</v>
+      </c>
+      <c r="B76" t="s">
+        <v>475</v>
+      </c>
+      <c r="C76" t="s">
+        <v>476</v>
+      </c>
+      <c r="D76" t="s">
+        <v>477</v>
+      </c>
+      <c r="E76" t="s">
+        <v>478</v>
+      </c>
+      <c r="F76" t="s">
+        <v>479</v>
+      </c>
+      <c r="G76" t="s">
+        <v>232</v>
+      </c>
+      <c r="H76" t="s">
+        <v>490</v>
+      </c>
+      <c r="I76" t="s">
+        <v>78</v>
+      </c>
+      <c r="J76" t="s">
+        <v>184</v>
+      </c>
+      <c r="K76" t="s">
+        <v>159</v>
+      </c>
+      <c r="L76" t="s">
+        <v>480</v>
+      </c>
+      <c r="M76" t="s">
+        <v>400</v>
+      </c>
+      <c r="N76" t="s">
+        <v>140</v>
+      </c>
+      <c r="O76" t="n">
+        <v>6</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>226493</v>
+      </c>
+      <c r="R76" t="n">
+        <v>825</v>
+      </c>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="s"/>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+      <c r="Z76" t="s"/>
+      <c r="AA76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>491</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>491</v>
+      </c>
+      <c r="AD76" t="s"/>
+      <c r="AE76" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG76" t="s"/>
+      <c r="AH76" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>492</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="77" spans="1:38">
+      <c r="A77" t="s">
+        <v>474</v>
+      </c>
+      <c r="B77" t="s">
+        <v>475</v>
+      </c>
+      <c r="C77" t="s">
+        <v>476</v>
+      </c>
+      <c r="D77" t="s">
+        <v>477</v>
+      </c>
+      <c r="E77" t="s">
+        <v>478</v>
+      </c>
+      <c r="F77" t="s">
+        <v>479</v>
+      </c>
+      <c r="G77" t="s">
+        <v>232</v>
+      </c>
+      <c r="H77" t="s">
+        <v>428</v>
+      </c>
+      <c r="I77" t="s">
+        <v>78</v>
+      </c>
+      <c r="J77" t="s">
+        <v>184</v>
+      </c>
+      <c r="K77" t="s">
+        <v>159</v>
+      </c>
+      <c r="L77" t="s">
+        <v>480</v>
+      </c>
+      <c r="M77" t="s">
+        <v>400</v>
+      </c>
+      <c r="N77" t="s">
+        <v>140</v>
+      </c>
+      <c r="O77" t="n">
+        <v>6</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>226493</v>
+      </c>
+      <c r="R77" t="n">
+        <v>925</v>
+      </c>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="s"/>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s"/>
+      <c r="Z77" t="s"/>
+      <c r="AA77" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>494</v>
+      </c>
+      <c r="AD77" t="s"/>
+      <c r="AE77" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG77" t="s"/>
+      <c r="AH77" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>431</v>
+      </c>
+      <c r="AK77" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="78" spans="1:38">
+      <c r="A78" t="s">
+        <v>474</v>
+      </c>
+      <c r="B78" t="s">
+        <v>475</v>
+      </c>
+      <c r="C78" t="s">
+        <v>476</v>
+      </c>
+      <c r="D78" t="s">
+        <v>477</v>
+      </c>
+      <c r="E78" t="s">
+        <v>478</v>
+      </c>
+      <c r="F78" t="s">
+        <v>479</v>
+      </c>
+      <c r="G78" t="s">
+        <v>232</v>
+      </c>
+      <c r="H78" t="s">
+        <v>496</v>
+      </c>
+      <c r="I78" t="s">
+        <v>78</v>
+      </c>
+      <c r="J78" t="s">
+        <v>184</v>
+      </c>
+      <c r="K78" t="s">
+        <v>159</v>
+      </c>
+      <c r="L78" t="s">
+        <v>480</v>
+      </c>
+      <c r="M78" t="s">
+        <v>400</v>
+      </c>
+      <c r="N78" t="s">
+        <v>140</v>
+      </c>
+      <c r="O78" t="n">
+        <v>6</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>226493</v>
+      </c>
+      <c r="R78" t="n">
+        <v>800</v>
+      </c>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="s"/>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s"/>
+      <c r="Z78" t="s"/>
+      <c r="AA78" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>497</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>497</v>
+      </c>
+      <c r="AD78" t="s"/>
+      <c r="AE78" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG78" t="s"/>
+      <c r="AH78" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ78" t="s">
+        <v>498</v>
+      </c>
+      <c r="AK78" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:38">
+      <c r="A79" t="s">
+        <v>474</v>
+      </c>
+      <c r="B79" t="s">
+        <v>475</v>
+      </c>
+      <c r="C79" t="s">
+        <v>476</v>
+      </c>
+      <c r="D79" t="s">
+        <v>477</v>
+      </c>
+      <c r="E79" t="s">
+        <v>478</v>
+      </c>
+      <c r="F79" t="s">
+        <v>479</v>
+      </c>
+      <c r="G79" t="s">
+        <v>232</v>
+      </c>
+      <c r="H79" t="s">
+        <v>500</v>
+      </c>
+      <c r="I79" t="s">
+        <v>78</v>
+      </c>
+      <c r="J79" t="s">
+        <v>184</v>
+      </c>
+      <c r="K79" t="s">
+        <v>159</v>
+      </c>
+      <c r="L79" t="s">
+        <v>480</v>
+      </c>
+      <c r="M79" t="s">
+        <v>400</v>
+      </c>
+      <c r="N79" t="s">
+        <v>140</v>
+      </c>
+      <c r="O79" t="n">
+        <v>6</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>226493</v>
+      </c>
+      <c r="R79" t="n">
+        <v>950</v>
+      </c>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="s"/>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
+      <c r="Z79" t="s"/>
+      <c r="AA79" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>501</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>501</v>
+      </c>
+      <c r="AD79" t="s"/>
+      <c r="AE79" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ79" t="s">
+        <v>502</v>
+      </c>
+      <c r="AK79" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="80" spans="1:38">
+      <c r="A80" t="s">
+        <v>474</v>
+      </c>
+      <c r="B80" t="s">
+        <v>475</v>
+      </c>
+      <c r="C80" t="s">
+        <v>476</v>
+      </c>
+      <c r="D80" t="s">
+        <v>477</v>
+      </c>
+      <c r="E80" t="s">
+        <v>478</v>
+      </c>
+      <c r="F80" t="s">
+        <v>479</v>
+      </c>
+      <c r="G80" t="s">
+        <v>232</v>
+      </c>
+      <c r="H80" t="s">
+        <v>504</v>
+      </c>
+      <c r="I80" t="s">
+        <v>78</v>
+      </c>
+      <c r="J80" t="s">
+        <v>184</v>
+      </c>
+      <c r="K80" t="s">
+        <v>159</v>
+      </c>
+      <c r="L80" t="s">
+        <v>480</v>
+      </c>
+      <c r="M80" t="s">
+        <v>400</v>
+      </c>
+      <c r="N80" t="s">
+        <v>140</v>
+      </c>
+      <c r="O80" t="n">
+        <v>6</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>226493</v>
+      </c>
+      <c r="R80" t="n">
+        <v>925</v>
+      </c>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="s"/>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s"/>
+      <c r="Z80" t="s"/>
+      <c r="AA80" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>505</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>505</v>
+      </c>
+      <c r="AD80" t="s"/>
+      <c r="AE80" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG80" t="s"/>
+      <c r="AH80" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ80" t="s">
+        <v>506</v>
+      </c>
+      <c r="AK80" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="81" spans="1:38">
+      <c r="A81" t="s">
+        <v>474</v>
+      </c>
+      <c r="B81" t="s">
+        <v>475</v>
+      </c>
+      <c r="C81" t="s">
+        <v>476</v>
+      </c>
+      <c r="D81" t="s">
+        <v>477</v>
+      </c>
+      <c r="E81" t="s">
+        <v>478</v>
+      </c>
+      <c r="F81" t="s">
+        <v>479</v>
+      </c>
+      <c r="G81" t="s">
+        <v>232</v>
+      </c>
+      <c r="H81" t="s">
+        <v>442</v>
+      </c>
+      <c r="I81" t="s">
+        <v>78</v>
+      </c>
+      <c r="J81" t="s">
+        <v>137</v>
+      </c>
+      <c r="K81" t="s">
+        <v>261</v>
+      </c>
+      <c r="L81" t="s">
+        <v>508</v>
+      </c>
+      <c r="M81" t="s">
+        <v>140</v>
+      </c>
+      <c r="N81" t="s">
+        <v>140</v>
+      </c>
+      <c r="O81" t="n">
+        <v>7</v>
+      </c>
+      <c r="P81" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>220611</v>
+      </c>
+      <c r="R81" t="n">
+        <v>30</v>
+      </c>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="s"/>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s"/>
+      <c r="Z81" t="s"/>
+      <c r="AA81" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>509</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>510</v>
+      </c>
+      <c r="AD81" t="s"/>
+      <c r="AE81" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG81" t="s"/>
+      <c r="AH81" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ81" t="s">
+        <v>443</v>
+      </c>
+      <c r="AK81" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="82" spans="1:38">
+      <c r="A82" t="s">
+        <v>474</v>
+      </c>
+      <c r="B82" t="s">
+        <v>475</v>
+      </c>
+      <c r="C82" t="s">
+        <v>476</v>
+      </c>
+      <c r="D82" t="s">
+        <v>477</v>
+      </c>
+      <c r="E82" t="s">
+        <v>478</v>
+      </c>
+      <c r="F82" t="s">
+        <v>479</v>
+      </c>
+      <c r="G82" t="s">
+        <v>232</v>
+      </c>
+      <c r="H82" t="s">
+        <v>482</v>
+      </c>
+      <c r="I82" t="s">
+        <v>78</v>
+      </c>
+      <c r="J82" t="s">
+        <v>137</v>
+      </c>
+      <c r="K82" t="s">
+        <v>261</v>
+      </c>
+      <c r="L82" t="s">
+        <v>508</v>
+      </c>
+      <c r="M82" t="s">
+        <v>140</v>
+      </c>
+      <c r="N82" t="s">
+        <v>140</v>
+      </c>
+      <c r="O82" t="n">
+        <v>7</v>
+      </c>
+      <c r="P82" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>220611</v>
+      </c>
+      <c r="R82" t="n">
+        <v>30</v>
+      </c>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="s"/>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+      <c r="Z82" t="s"/>
+      <c r="AA82" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>512</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD82" t="s"/>
+      <c r="AE82" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ82" t="s">
+        <v>484</v>
+      </c>
+      <c r="AK82" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="83" spans="1:38">
+      <c r="A83" t="s">
+        <v>474</v>
+      </c>
+      <c r="B83" t="s">
+        <v>475</v>
+      </c>
+      <c r="C83" t="s">
+        <v>476</v>
+      </c>
+      <c r="D83" t="s">
+        <v>477</v>
+      </c>
+      <c r="E83" t="s">
+        <v>478</v>
+      </c>
+      <c r="F83" t="s">
+        <v>479</v>
+      </c>
+      <c r="G83" t="s">
+        <v>232</v>
+      </c>
+      <c r="H83" t="s">
+        <v>486</v>
+      </c>
+      <c r="I83" t="s">
+        <v>78</v>
+      </c>
+      <c r="J83" t="s">
+        <v>137</v>
+      </c>
+      <c r="K83" t="s">
+        <v>261</v>
+      </c>
+      <c r="L83" t="s">
+        <v>508</v>
+      </c>
+      <c r="M83" t="s">
+        <v>140</v>
+      </c>
+      <c r="N83" t="s">
+        <v>140</v>
+      </c>
+      <c r="O83" t="n">
+        <v>7</v>
+      </c>
+      <c r="P83" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>220611</v>
+      </c>
+      <c r="R83" t="n">
+        <v>30</v>
+      </c>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="s"/>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s"/>
+      <c r="Z83" t="s"/>
+      <c r="AA83" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>497</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>501</v>
+      </c>
+      <c r="AD83" t="s"/>
+      <c r="AE83" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG83" t="s"/>
+      <c r="AH83" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ83" t="s">
+        <v>488</v>
+      </c>
+      <c r="AK83" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="84" spans="1:38">
+      <c r="A84" t="s">
+        <v>474</v>
+      </c>
+      <c r="B84" t="s">
+        <v>475</v>
+      </c>
+      <c r="C84" t="s">
+        <v>476</v>
+      </c>
+      <c r="D84" t="s">
+        <v>477</v>
+      </c>
+      <c r="E84" t="s">
+        <v>478</v>
+      </c>
+      <c r="F84" t="s">
+        <v>479</v>
+      </c>
+      <c r="G84" t="s">
+        <v>232</v>
+      </c>
+      <c r="H84" t="s">
+        <v>490</v>
+      </c>
+      <c r="I84" t="s">
+        <v>78</v>
+      </c>
+      <c r="J84" t="s">
+        <v>137</v>
+      </c>
+      <c r="K84" t="s">
+        <v>261</v>
+      </c>
+      <c r="L84" t="s">
+        <v>508</v>
+      </c>
+      <c r="M84" t="s">
+        <v>140</v>
+      </c>
+      <c r="N84" t="s">
+        <v>140</v>
+      </c>
+      <c r="O84" t="n">
+        <v>7</v>
+      </c>
+      <c r="P84" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>220611</v>
+      </c>
+      <c r="R84" t="n">
+        <v>30</v>
+      </c>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="s"/>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s"/>
+      <c r="Z84" t="s"/>
+      <c r="AA84" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>515</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>516</v>
+      </c>
+      <c r="AD84" t="s"/>
+      <c r="AE84" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG84" t="s"/>
+      <c r="AH84" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ84" t="s">
+        <v>492</v>
+      </c>
+      <c r="AK84" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="85" spans="1:38">
+      <c r="A85" t="s">
+        <v>474</v>
+      </c>
+      <c r="B85" t="s">
+        <v>475</v>
+      </c>
+      <c r="C85" t="s">
+        <v>476</v>
+      </c>
+      <c r="D85" t="s">
+        <v>477</v>
+      </c>
+      <c r="E85" t="s">
+        <v>478</v>
+      </c>
+      <c r="F85" t="s">
+        <v>479</v>
+      </c>
+      <c r="G85" t="s">
+        <v>232</v>
+      </c>
+      <c r="H85" t="s">
+        <v>428</v>
+      </c>
+      <c r="I85" t="s">
+        <v>78</v>
+      </c>
+      <c r="J85" t="s">
+        <v>137</v>
+      </c>
+      <c r="K85" t="s">
+        <v>261</v>
+      </c>
+      <c r="L85" t="s">
+        <v>508</v>
+      </c>
+      <c r="M85" t="s">
+        <v>140</v>
+      </c>
+      <c r="N85" t="s">
+        <v>140</v>
+      </c>
+      <c r="O85" t="n">
+        <v>7</v>
+      </c>
+      <c r="P85" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>220611</v>
+      </c>
+      <c r="R85" t="n">
+        <v>30</v>
+      </c>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="s"/>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s"/>
+      <c r="Z85" t="s"/>
+      <c r="AA85" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>518</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>519</v>
+      </c>
+      <c r="AD85" t="s"/>
+      <c r="AE85" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG85" t="s"/>
+      <c r="AH85" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ85" t="s">
+        <v>431</v>
+      </c>
+      <c r="AK85" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="86" spans="1:38">
+      <c r="A86" t="s">
+        <v>474</v>
+      </c>
+      <c r="B86" t="s">
+        <v>475</v>
+      </c>
+      <c r="C86" t="s">
+        <v>476</v>
+      </c>
+      <c r="D86" t="s">
+        <v>477</v>
+      </c>
+      <c r="E86" t="s">
+        <v>478</v>
+      </c>
+      <c r="F86" t="s">
+        <v>479</v>
+      </c>
+      <c r="G86" t="s">
+        <v>232</v>
+      </c>
+      <c r="H86" t="s">
+        <v>496</v>
+      </c>
+      <c r="I86" t="s">
+        <v>78</v>
+      </c>
+      <c r="J86" t="s">
+        <v>137</v>
+      </c>
+      <c r="K86" t="s">
+        <v>261</v>
+      </c>
+      <c r="L86" t="s">
+        <v>508</v>
+      </c>
+      <c r="M86" t="s">
+        <v>140</v>
+      </c>
+      <c r="N86" t="s">
+        <v>140</v>
+      </c>
+      <c r="O86" t="n">
+        <v>7</v>
+      </c>
+      <c r="P86" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>220611</v>
+      </c>
+      <c r="R86" t="n">
+        <v>30</v>
+      </c>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="s"/>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s"/>
+      <c r="Z86" t="s"/>
+      <c r="AA86" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>521</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>522</v>
+      </c>
+      <c r="AD86" t="s"/>
+      <c r="AE86" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG86" t="s"/>
+      <c r="AH86" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ86" t="s">
+        <v>498</v>
+      </c>
+      <c r="AK86" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="87" spans="1:38">
+      <c r="A87" t="s">
+        <v>474</v>
+      </c>
+      <c r="B87" t="s">
+        <v>475</v>
+      </c>
+      <c r="C87" t="s">
+        <v>476</v>
+      </c>
+      <c r="D87" t="s">
+        <v>477</v>
+      </c>
+      <c r="E87" t="s">
+        <v>478</v>
+      </c>
+      <c r="F87" t="s">
+        <v>479</v>
+      </c>
+      <c r="G87" t="s">
+        <v>232</v>
+      </c>
+      <c r="H87" t="s">
+        <v>500</v>
+      </c>
+      <c r="I87" t="s">
+        <v>78</v>
+      </c>
+      <c r="J87" t="s">
+        <v>137</v>
+      </c>
+      <c r="K87" t="s">
+        <v>261</v>
+      </c>
+      <c r="L87" t="s">
+        <v>508</v>
+      </c>
+      <c r="M87" t="s">
+        <v>140</v>
+      </c>
+      <c r="N87" t="s">
+        <v>140</v>
+      </c>
+      <c r="O87" t="n">
+        <v>7</v>
+      </c>
+      <c r="P87" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>220611</v>
+      </c>
+      <c r="R87" t="n">
+        <v>30</v>
+      </c>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="s"/>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s"/>
+      <c r="Z87" t="s"/>
+      <c r="AA87" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>524</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD87" t="s"/>
+      <c r="AE87" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ87" t="s">
+        <v>502</v>
+      </c>
+      <c r="AK87" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38">
+      <c r="A88" t="s">
+        <v>474</v>
+      </c>
+      <c r="B88" t="s">
+        <v>475</v>
+      </c>
+      <c r="C88" t="s">
+        <v>476</v>
+      </c>
+      <c r="D88" t="s">
+        <v>477</v>
+      </c>
+      <c r="E88" t="s">
+        <v>478</v>
+      </c>
+      <c r="F88" t="s">
+        <v>479</v>
+      </c>
+      <c r="G88" t="s">
+        <v>232</v>
+      </c>
+      <c r="H88" t="s">
+        <v>504</v>
+      </c>
+      <c r="I88" t="s">
+        <v>78</v>
+      </c>
+      <c r="J88" t="s">
+        <v>137</v>
+      </c>
+      <c r="K88" t="s">
+        <v>261</v>
+      </c>
+      <c r="L88" t="s">
+        <v>508</v>
+      </c>
+      <c r="M88" t="s">
+        <v>140</v>
+      </c>
+      <c r="N88" t="s">
+        <v>140</v>
+      </c>
+      <c r="O88" t="n">
+        <v>7</v>
+      </c>
+      <c r="P88" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>220611</v>
+      </c>
+      <c r="R88" t="n">
+        <v>30</v>
+      </c>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="s"/>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s"/>
+      <c r="Z88" t="s"/>
+      <c r="AA88" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>527</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>460</v>
+      </c>
+      <c r="AD88" t="s"/>
+      <c r="AE88" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG88" t="s"/>
+      <c r="AH88" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ88" t="s">
+        <v>506</v>
+      </c>
+      <c r="AK88" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="89" spans="1:38">
+      <c r="A89" t="s">
+        <v>529</v>
+      </c>
+      <c r="B89" t="s">
+        <v>530</v>
+      </c>
+      <c r="C89" t="s">
+        <v>531</v>
+      </c>
+      <c r="D89" t="s">
+        <v>532</v>
+      </c>
+      <c r="E89" t="s">
+        <v>533</v>
+      </c>
+      <c r="F89" t="s">
+        <v>534</v>
+      </c>
+      <c r="G89" t="s">
+        <v>218</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>137</v>
+      </c>
+      <c r="K89" t="s">
+        <v>261</v>
+      </c>
+      <c r="L89" t="s">
+        <v>535</v>
+      </c>
+      <c r="M89" t="s"/>
+      <c r="N89" t="s">
+        <v>140</v>
+      </c>
+      <c r="O89" t="n">
+        <v>45</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>500000</v>
+      </c>
+      <c r="R89" t="n">
+        <v>25</v>
+      </c>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="s"/>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s"/>
+      <c r="Z89" t="s"/>
+      <c r="AA89" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>536</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>537</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>538</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>462</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG89" t="s"/>
+      <c r="AH89" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ89" t="s"/>
+      <c r="AK89" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="90" spans="1:38">
+      <c r="A90" t="s">
+        <v>529</v>
+      </c>
+      <c r="B90" t="s">
+        <v>530</v>
+      </c>
+      <c r="C90" t="s">
+        <v>531</v>
+      </c>
+      <c r="D90" t="s">
+        <v>532</v>
+      </c>
+      <c r="E90" t="s">
+        <v>533</v>
+      </c>
+      <c r="F90" t="s">
+        <v>534</v>
+      </c>
+      <c r="G90" t="s">
+        <v>240</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>137</v>
+      </c>
+      <c r="K90" t="s">
+        <v>261</v>
+      </c>
+      <c r="L90" t="s">
+        <v>535</v>
+      </c>
+      <c r="M90" t="s"/>
+      <c r="N90" t="s">
+        <v>140</v>
+      </c>
+      <c r="O90" t="n">
+        <v>45</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>500000</v>
+      </c>
+      <c r="R90" t="n">
+        <v>25</v>
+      </c>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="s"/>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s"/>
+      <c r="Z90" t="s"/>
+      <c r="AA90" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>540</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>538</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>462</v>
+      </c>
+      <c r="AF90" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG90" t="s"/>
+      <c r="AH90" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ90" t="s"/>
+      <c r="AK90" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="91" spans="1:38">
+      <c r="A91" t="s">
+        <v>529</v>
+      </c>
+      <c r="B91" t="s">
+        <v>530</v>
+      </c>
+      <c r="C91" t="s">
+        <v>531</v>
+      </c>
+      <c r="D91" t="s">
+        <v>532</v>
+      </c>
+      <c r="E91" t="s">
+        <v>533</v>
+      </c>
+      <c r="F91" t="s">
+        <v>534</v>
+      </c>
+      <c r="G91" t="s">
+        <v>51</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>137</v>
+      </c>
+      <c r="K91" t="s">
+        <v>261</v>
+      </c>
+      <c r="L91" t="s">
+        <v>535</v>
+      </c>
+      <c r="M91" t="s"/>
+      <c r="N91" t="s">
+        <v>140</v>
+      </c>
+      <c r="O91" t="n">
+        <v>45</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>500000</v>
+      </c>
+      <c r="R91" t="n">
+        <v>15</v>
+      </c>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="s"/>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s"/>
+      <c r="Z91" t="s"/>
+      <c r="AA91" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>542</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>538</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>462</v>
+      </c>
+      <c r="AF91" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG91" t="s"/>
+      <c r="AH91" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI91" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ91" t="s"/>
+      <c r="AK91" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="92" spans="1:38">
+      <c r="A92" t="s">
+        <v>544</v>
+      </c>
+      <c r="B92" t="s">
+        <v>545</v>
+      </c>
+      <c r="C92" t="s">
+        <v>546</v>
+      </c>
+      <c r="D92" t="s">
+        <v>547</v>
+      </c>
+      <c r="E92" t="s">
+        <v>548</v>
+      </c>
+      <c r="F92" t="s">
+        <v>549</v>
+      </c>
+      <c r="G92" t="s">
+        <v>550</v>
+      </c>
+      <c r="H92" t="s">
+        <v>551</v>
+      </c>
+      <c r="I92" t="s">
+        <v>78</v>
+      </c>
+      <c r="J92" t="s">
+        <v>137</v>
+      </c>
+      <c r="K92" t="s">
+        <v>159</v>
+      </c>
+      <c r="L92" t="s">
+        <v>552</v>
+      </c>
+      <c r="M92" t="s">
+        <v>400</v>
+      </c>
+      <c r="N92" t="s">
+        <v>140</v>
+      </c>
+      <c r="O92" t="n">
+        <v>6</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R92" t="n">
+        <v>120</v>
+      </c>
+      <c r="S92" t="n">
+        <v>60</v>
+      </c>
+      <c r="T92" t="n">
+        <v>60</v>
+      </c>
+      <c r="U92" t="s"/>
+      <c r="V92" t="s"/>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s"/>
+      <c r="Z92" t="s"/>
+      <c r="AA92" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>553</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>554</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>555</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF92" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG92" t="s"/>
+      <c r="AH92" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI92" t="s">
+        <v>556</v>
+      </c>
+      <c r="AJ92" t="s">
+        <v>557</v>
+      </c>
+      <c r="AK92" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="93" spans="1:38">
+      <c r="A93" t="s">
+        <v>544</v>
+      </c>
+      <c r="B93" t="s">
+        <v>545</v>
+      </c>
+      <c r="C93" t="s">
+        <v>546</v>
+      </c>
+      <c r="D93" t="s">
+        <v>547</v>
+      </c>
+      <c r="E93" t="s">
+        <v>548</v>
+      </c>
+      <c r="F93" t="s">
+        <v>549</v>
+      </c>
+      <c r="G93" t="s">
+        <v>550</v>
+      </c>
+      <c r="H93" t="s">
+        <v>559</v>
+      </c>
+      <c r="I93" t="s">
+        <v>78</v>
+      </c>
+      <c r="J93" t="s">
+        <v>137</v>
+      </c>
+      <c r="K93" t="s">
+        <v>159</v>
+      </c>
+      <c r="L93" t="s">
+        <v>552</v>
+      </c>
+      <c r="M93" t="s">
+        <v>400</v>
+      </c>
+      <c r="N93" t="s">
+        <v>140</v>
+      </c>
+      <c r="O93" t="n">
+        <v>6</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R93" t="n">
+        <v>120</v>
+      </c>
+      <c r="S93" t="n">
+        <v>60</v>
+      </c>
+      <c r="T93" t="n">
+        <v>60</v>
+      </c>
+      <c r="U93" t="s"/>
+      <c r="V93" t="s"/>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s"/>
+      <c r="Z93" t="s"/>
+      <c r="AA93" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>553</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>554</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>555</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF93" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG93" t="s"/>
+      <c r="AH93" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI93" t="s">
+        <v>556</v>
+      </c>
+      <c r="AJ93" t="s">
+        <v>560</v>
+      </c>
+      <c r="AK93" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="94" spans="1:38">
+      <c r="A94" t="s">
+        <v>544</v>
+      </c>
+      <c r="B94" t="s">
+        <v>545</v>
+      </c>
+      <c r="C94" t="s">
+        <v>546</v>
+      </c>
+      <c r="D94" t="s">
+        <v>547</v>
+      </c>
+      <c r="E94" t="s">
+        <v>548</v>
+      </c>
+      <c r="F94" t="s">
+        <v>549</v>
+      </c>
+      <c r="G94" t="s">
+        <v>550</v>
+      </c>
+      <c r="H94" t="s">
+        <v>551</v>
+      </c>
+      <c r="I94" t="s">
+        <v>78</v>
+      </c>
+      <c r="J94" t="s">
+        <v>137</v>
+      </c>
+      <c r="K94" t="s">
+        <v>261</v>
+      </c>
+      <c r="L94" t="s">
+        <v>562</v>
+      </c>
+      <c r="M94" t="s">
+        <v>140</v>
+      </c>
+      <c r="N94" t="s">
+        <v>140</v>
+      </c>
+      <c r="O94" t="n">
+        <v>30</v>
+      </c>
+      <c r="P94" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>144900</v>
+      </c>
+      <c r="R94" t="n">
+        <v>90</v>
+      </c>
+      <c r="S94" t="n">
+        <v>72</v>
+      </c>
+      <c r="T94" t="n">
+        <v>18</v>
+      </c>
+      <c r="U94" t="s"/>
+      <c r="V94" t="s"/>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s"/>
+      <c r="Z94" t="s"/>
+      <c r="AA94" t="s">
+        <v>458</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>564</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>565</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF94" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG94" t="s"/>
+      <c r="AH94" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI94" t="s">
+        <v>556</v>
+      </c>
+      <c r="AJ94" t="s">
+        <v>557</v>
+      </c>
+      <c r="AK94" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="95" spans="1:38">
+      <c r="A95" t="s">
+        <v>544</v>
+      </c>
+      <c r="B95" t="s">
+        <v>545</v>
+      </c>
+      <c r="C95" t="s">
+        <v>546</v>
+      </c>
+      <c r="D95" t="s">
+        <v>547</v>
+      </c>
+      <c r="E95" t="s">
+        <v>548</v>
+      </c>
+      <c r="F95" t="s">
+        <v>549</v>
+      </c>
+      <c r="G95" t="s">
+        <v>550</v>
+      </c>
+      <c r="H95" t="s">
+        <v>559</v>
+      </c>
+      <c r="I95" t="s">
+        <v>78</v>
+      </c>
+      <c r="J95" t="s">
+        <v>137</v>
+      </c>
+      <c r="K95" t="s">
+        <v>261</v>
+      </c>
+      <c r="L95" t="s">
+        <v>562</v>
+      </c>
+      <c r="M95" t="s">
+        <v>140</v>
+      </c>
+      <c r="N95" t="s">
+        <v>140</v>
+      </c>
+      <c r="O95" t="n">
+        <v>30</v>
+      </c>
+      <c r="P95" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>144900</v>
+      </c>
+      <c r="R95" t="n">
+        <v>90</v>
+      </c>
+      <c r="S95" t="n">
+        <v>72</v>
+      </c>
+      <c r="T95" t="n">
+        <v>18</v>
+      </c>
+      <c r="U95" t="s"/>
+      <c r="V95" t="s"/>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s"/>
+      <c r="Z95" t="s"/>
+      <c r="AA95" t="s">
+        <v>458</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>564</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>565</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF95" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG95" t="s"/>
+      <c r="AH95" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>556</v>
+      </c>
+      <c r="AJ95" t="s">
+        <v>560</v>
+      </c>
+      <c r="AK95" t="s">
+        <v>567</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/sheets/consolidated.xlsx
+++ b/sheets/consolidated.xlsx
@@ -260,7 +260,7 @@
     <t>Planned (funded)</t>
   </si>
   <si>
-    <t>23/09/15</t>
+    <t>24/09/15</t>
   </si>
   <si>
     <t>East</t>

--- a/sheets/consolidated.xlsx
+++ b/sheets/consolidated.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="570">
   <si>
     <t>Implementing agency</t>
   </si>
@@ -128,13 +128,13 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>16/05/15</t>
-  </si>
-  <si>
-    <t>22/05/15</t>
-  </si>
-  <si>
-    <t>05/25/15</t>
+    <t>16/05/2015</t>
+  </si>
+  <si>
+    <t>22/05/2015</t>
+  </si>
+  <si>
+    <t>25/05/2015</t>
   </si>
   <si>
     <t>TRUE</t>
@@ -182,7 +182,7 @@
     <t>Ongoing / In Country Stock</t>
   </si>
   <si>
-    <t>01/06/15</t>
+    <t>01/06/2015</t>
   </si>
   <si>
     <t>Number of distributed kits can vary according to real population data</t>
@@ -203,7 +203,7 @@
     <t>Distribution of NFI</t>
   </si>
   <si>
-    <t>08/03/15</t>
+    <t>03/08/2015</t>
   </si>
   <si>
     <t>ACFNuwakotChaughodaUnknownShelterTarpaulin600600</t>
@@ -215,7 +215,7 @@
     <t>Dhunche</t>
   </si>
   <si>
-    <t>29/05/15</t>
+    <t>29/05/2015</t>
   </si>
   <si>
     <t>524 2 05 29</t>
@@ -260,7 +260,7 @@
     <t>Planned (funded)</t>
   </si>
   <si>
-    <t>24/09/15</t>
+    <t>02/10/2015</t>
   </si>
   <si>
     <t>East</t>
@@ -448,7 +448,7 @@
     <t>07/04/15</t>
   </si>
   <si>
-    <t>09/04/15</t>
+    <t>04/09/2015</t>
   </si>
   <si>
     <t>524 2 05 29 5 016</t>
@@ -505,7 +505,7 @@
     <t>Social Mobilisers and volunteers will be able to guide people in the communities to use well CGI, fixing kits and tools, as well to aware communities on Building Back Safer.</t>
   </si>
   <si>
-    <t>09/11/15</t>
+    <t>11/09/2015</t>
   </si>
   <si>
     <t>524 3 07 37</t>
@@ -598,7 +598,7 @@
     <t>Chainpur</t>
   </si>
   <si>
-    <t>08/24/15</t>
+    <t>24/08/2015</t>
   </si>
   <si>
     <t>4x4/Pickup access</t>
@@ -640,7 +640,7 @@
     <t>15 master carpenters attended/Seto Gurans</t>
   </si>
   <si>
-    <t>09/18/15</t>
+    <t>18/09/2015</t>
   </si>
   <si>
     <t>524 2 05 27</t>
@@ -1006,7 +1006,7 @@
     <t>11/30/15</t>
   </si>
   <si>
-    <t>08/16/15</t>
+    <t>16/08/2015</t>
   </si>
   <si>
     <t>Handicap InternationalNuwakotPermanent ReconstructionSpecialists (including ToTs)Yes</t>
@@ -1039,7 +1039,7 @@
     <t>07/20/15</t>
   </si>
   <si>
-    <t>07/26/15</t>
+    <t>26/07/2015</t>
   </si>
   <si>
     <t>524 2 04 22 5 002</t>
@@ -1112,7 +1112,7 @@
     <t>Chilime</t>
   </si>
   <si>
-    <t>06/08/15</t>
+    <t>08/06/2015</t>
   </si>
   <si>
     <t>524 2 05 29 5 012</t>
@@ -1163,6 +1163,9 @@
     <t>Manekor Society Nepal (MSN)</t>
   </si>
   <si>
+    <t>09/04/15</t>
+  </si>
+  <si>
     <t>Organized Jointly at one location</t>
   </si>
   <si>
@@ -1208,6 +1211,9 @@
     <t>Planned Community Training (drop down not working); Structural assessment Completed in about half of the households in all 9 wards (236 HH assessed; 93% red)</t>
   </si>
   <si>
+    <t>02/07/2015</t>
+  </si>
+  <si>
     <t>524 2 05 24 5 087</t>
   </si>
   <si>
@@ -1406,7 +1412,7 @@
     <t>Vulnerable Caste should not be a measure. Individuals from any caste with very poor economic resources can be vulnerable.</t>
   </si>
   <si>
-    <t>08/30/15</t>
+    <t>30/08/2015</t>
   </si>
   <si>
     <t>524 2 05 23 5 039</t>
@@ -7261,13 +7267,13 @@
         <v>36</v>
       </c>
       <c r="AB45" t="s">
-        <v>143</v>
+        <v>381</v>
       </c>
       <c r="AC45" t="s">
-        <v>143</v>
+        <v>381</v>
       </c>
       <c r="AD45" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AE45" t="s">
         <v>207</v>
@@ -7288,7 +7294,7 @@
         <v>365</v>
       </c>
       <c r="AK45" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:38">
@@ -7372,10 +7378,10 @@
         <v>36</v>
       </c>
       <c r="AB46" t="s">
-        <v>143</v>
+        <v>381</v>
       </c>
       <c r="AC46" t="s">
-        <v>143</v>
+        <v>381</v>
       </c>
       <c r="AD46" t="s"/>
       <c r="AE46" t="s">
@@ -7397,7 +7403,7 @@
         <v>371</v>
       </c>
       <c r="AK46" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:38">
@@ -7483,10 +7489,10 @@
         <v>36</v>
       </c>
       <c r="AB47" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AC47" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AD47" t="s"/>
       <c r="AE47" t="s">
@@ -7508,7 +7514,7 @@
         <v>368</v>
       </c>
       <c r="AK47" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="48" spans="1:38">
@@ -7594,13 +7600,13 @@
         <v>36</v>
       </c>
       <c r="AB48" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AC48" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AD48" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AE48" t="s">
         <v>207</v>
@@ -7621,7 +7627,7 @@
         <v>374</v>
       </c>
       <c r="AK48" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49" spans="1:38">
@@ -7705,10 +7711,10 @@
         <v>36</v>
       </c>
       <c r="AB49" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AC49" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AD49" t="s"/>
       <c r="AE49" t="s">
@@ -7730,29 +7736,29 @@
         <v>377</v>
       </c>
       <c r="AK49" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="50" spans="1:38">
       <c r="A50" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B50" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C50" t="s"/>
       <c r="D50" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E50" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F50" t="s"/>
       <c r="G50" t="s">
         <v>76</v>
       </c>
       <c r="H50" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I50" t="s"/>
       <c r="J50" t="s"/>
@@ -7778,14 +7784,14 @@
         <v>80</v>
       </c>
       <c r="AB50" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC50" t="s"/>
       <c r="AD50" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AE50" t="s">
-        <v>167</v>
+        <v>397</v>
       </c>
       <c r="AF50" t="s">
         <v>40</v>
@@ -7798,34 +7804,34 @@
         <v>83</v>
       </c>
       <c r="AJ50" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AK50" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="1:38">
       <c r="A51" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B51" t="s">
         <v>198</v>
       </c>
       <c r="C51" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D51" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E51" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F51" t="s"/>
       <c r="G51" t="s">
         <v>76</v>
       </c>
       <c r="H51" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I51" t="s"/>
       <c r="J51" t="s">
@@ -7836,7 +7842,7 @@
       </c>
       <c r="L51" t="s"/>
       <c r="M51" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N51" t="s">
         <v>140</v>
@@ -7859,7 +7865,7 @@
       <c r="AB51" t="s"/>
       <c r="AC51" t="s"/>
       <c r="AD51" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AE51" t="s">
         <v>207</v>
@@ -7875,34 +7881,34 @@
         <v>83</v>
       </c>
       <c r="AJ51" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AK51" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52" spans="1:38">
       <c r="A52" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B52" t="s">
         <v>198</v>
       </c>
       <c r="C52" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D52" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E52" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F52" t="s"/>
       <c r="G52" t="s">
         <v>76</v>
       </c>
       <c r="H52" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I52" t="s"/>
       <c r="J52" t="s">
@@ -7913,7 +7919,7 @@
       </c>
       <c r="L52" t="s"/>
       <c r="M52" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N52" t="s">
         <v>140</v>
@@ -7936,7 +7942,7 @@
       <c r="AB52" t="s"/>
       <c r="AC52" t="s"/>
       <c r="AD52" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AE52" t="s">
         <v>207</v>
@@ -7952,37 +7958,37 @@
         <v>83</v>
       </c>
       <c r="AJ52" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AK52" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" spans="1:38">
       <c r="A53" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B53" t="s">
         <v>198</v>
       </c>
       <c r="C53" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D53" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E53" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F53" t="s"/>
       <c r="G53" t="s">
         <v>76</v>
       </c>
       <c r="H53" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I53" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J53" t="s">
         <v>137</v>
@@ -8013,7 +8019,7 @@
       <c r="AB53" t="s"/>
       <c r="AC53" t="s"/>
       <c r="AD53" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AE53" t="s">
         <v>207</v>
@@ -8029,10 +8035,10 @@
         <v>83</v>
       </c>
       <c r="AJ53" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AK53" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="54" spans="1:38">
@@ -8095,7 +8101,7 @@
       </c>
       <c r="AJ54" t="s"/>
       <c r="AK54" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="55" spans="1:38">
@@ -8158,7 +8164,7 @@
       </c>
       <c r="AJ55" t="s"/>
       <c r="AK55" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="56" spans="1:38">
@@ -8221,7 +8227,7 @@
       </c>
       <c r="AJ56" t="s"/>
       <c r="AK56" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="57" spans="1:38">
@@ -8234,7 +8240,7 @@
       <c r="E57" t="s"/>
       <c r="F57" t="s"/>
       <c r="G57" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H57" t="s"/>
       <c r="I57" t="s">
@@ -8280,11 +8286,11 @@
         <v>82</v>
       </c>
       <c r="AI57" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AJ57" t="s"/>
       <c r="AK57" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:38">
@@ -8297,7 +8303,7 @@
       <c r="E58" t="s"/>
       <c r="F58" t="s"/>
       <c r="G58" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H58" t="s"/>
       <c r="I58" t="s">
@@ -8343,11 +8349,11 @@
         <v>82</v>
       </c>
       <c r="AI58" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AJ58" t="s"/>
       <c r="AK58" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="59" spans="1:38">
@@ -8360,7 +8366,7 @@
       <c r="E59" t="s"/>
       <c r="F59" t="s"/>
       <c r="G59" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H59" t="s"/>
       <c r="I59" t="s">
@@ -8406,11 +8412,11 @@
         <v>82</v>
       </c>
       <c r="AI59" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AJ59" t="s"/>
       <c r="AK59" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="60" spans="1:38">
@@ -8423,7 +8429,7 @@
       <c r="E60" t="s"/>
       <c r="F60" t="s"/>
       <c r="G60" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H60" t="s"/>
       <c r="I60" t="s">
@@ -8469,11 +8475,11 @@
         <v>82</v>
       </c>
       <c r="AI60" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AJ60" t="s"/>
       <c r="AK60" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="61" spans="1:38">
@@ -8486,7 +8492,7 @@
       <c r="E61" t="s"/>
       <c r="F61" t="s"/>
       <c r="G61" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H61" t="s"/>
       <c r="I61" t="s">
@@ -8532,11 +8538,11 @@
         <v>82</v>
       </c>
       <c r="AI61" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AJ61" t="s"/>
       <c r="AK61" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62" spans="1:38">
@@ -8549,7 +8555,7 @@
       <c r="E62" t="s"/>
       <c r="F62" t="s"/>
       <c r="G62" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H62" t="s"/>
       <c r="I62" t="s">
@@ -8595,11 +8601,11 @@
         <v>82</v>
       </c>
       <c r="AI62" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AJ62" t="s"/>
       <c r="AK62" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" spans="1:38">
@@ -8607,23 +8613,23 @@
         <v>132</v>
       </c>
       <c r="B63" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C63" t="s"/>
       <c r="D63" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E63" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F63" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G63" t="s">
         <v>232</v>
       </c>
       <c r="H63" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="I63" t="s">
         <v>78</v>
@@ -8635,7 +8641,7 @@
         <v>261</v>
       </c>
       <c r="L63" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M63" t="s">
         <v>140</v>
@@ -8666,7 +8672,7 @@
         <v>327</v>
       </c>
       <c r="AC63" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AD63" t="s"/>
       <c r="AE63" t="s">
@@ -8683,10 +8689,10 @@
         <v>236</v>
       </c>
       <c r="AJ63" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AK63" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="64" spans="1:38">
@@ -8694,23 +8700,23 @@
         <v>132</v>
       </c>
       <c r="B64" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C64" t="s"/>
       <c r="D64" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E64" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F64" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G64" t="s">
         <v>232</v>
       </c>
       <c r="H64" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I64" t="s">
         <v>78</v>
@@ -8722,7 +8728,7 @@
         <v>261</v>
       </c>
       <c r="L64" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M64" t="s">
         <v>140</v>
@@ -8753,7 +8759,7 @@
         <v>327</v>
       </c>
       <c r="AC64" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AD64" t="s"/>
       <c r="AE64" t="s">
@@ -8772,10 +8778,10 @@
         <v>236</v>
       </c>
       <c r="AJ64" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AK64" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="65" spans="1:38">
@@ -8783,23 +8789,23 @@
         <v>132</v>
       </c>
       <c r="B65" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C65" t="s"/>
       <c r="D65" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E65" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F65" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G65" t="s">
         <v>232</v>
       </c>
       <c r="H65" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="I65" t="s">
         <v>78</v>
@@ -8811,7 +8817,7 @@
         <v>261</v>
       </c>
       <c r="L65" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M65" t="s">
         <v>140</v>
@@ -8842,7 +8848,7 @@
         <v>327</v>
       </c>
       <c r="AC65" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AD65" t="s"/>
       <c r="AE65" t="s">
@@ -8861,10 +8867,10 @@
         <v>236</v>
       </c>
       <c r="AJ65" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AK65" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" spans="1:38">
@@ -8872,23 +8878,23 @@
         <v>132</v>
       </c>
       <c r="B66" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C66" t="s"/>
       <c r="D66" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E66" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F66" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G66" t="s">
         <v>232</v>
       </c>
       <c r="H66" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="I66" t="s">
         <v>78</v>
@@ -8900,7 +8906,7 @@
         <v>261</v>
       </c>
       <c r="L66" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M66" t="s">
         <v>140</v>
@@ -8931,7 +8937,7 @@
         <v>327</v>
       </c>
       <c r="AC66" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AD66" t="s"/>
       <c r="AE66" t="s">
@@ -8948,10 +8954,10 @@
         <v>236</v>
       </c>
       <c r="AJ66" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AK66" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="67" spans="1:38">
@@ -8959,23 +8965,23 @@
         <v>132</v>
       </c>
       <c r="B67" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C67" t="s"/>
       <c r="D67" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E67" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F67" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G67" t="s">
         <v>232</v>
       </c>
       <c r="H67" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="I67" t="s">
         <v>78</v>
@@ -8987,7 +8993,7 @@
         <v>159</v>
       </c>
       <c r="L67" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M67" t="s">
         <v>140</v>
@@ -9015,7 +9021,7 @@
       <c r="AB67" t="s"/>
       <c r="AC67" t="s"/>
       <c r="AD67" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AE67" t="s">
         <v>207</v>
@@ -9031,10 +9037,10 @@
         <v>236</v>
       </c>
       <c r="AJ67" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AK67" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="68" spans="1:38">
@@ -9042,23 +9048,23 @@
         <v>132</v>
       </c>
       <c r="B68" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C68" t="s"/>
       <c r="D68" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E68" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F68" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G68" t="s">
         <v>232</v>
       </c>
       <c r="H68" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I68" t="s">
         <v>78</v>
@@ -9070,7 +9076,7 @@
         <v>159</v>
       </c>
       <c r="L68" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M68" t="s">
         <v>140</v>
@@ -9114,10 +9120,10 @@
         <v>236</v>
       </c>
       <c r="AJ68" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AK68" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69" spans="1:38">
@@ -9125,23 +9131,23 @@
         <v>132</v>
       </c>
       <c r="B69" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C69" t="s"/>
       <c r="D69" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E69" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F69" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G69" t="s">
         <v>232</v>
       </c>
       <c r="H69" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="I69" t="s">
         <v>78</v>
@@ -9153,7 +9159,7 @@
         <v>159</v>
       </c>
       <c r="L69" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M69" t="s">
         <v>140</v>
@@ -9197,10 +9203,10 @@
         <v>236</v>
       </c>
       <c r="AJ69" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AK69" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="70" spans="1:38">
@@ -9208,23 +9214,23 @@
         <v>132</v>
       </c>
       <c r="B70" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C70" t="s"/>
       <c r="D70" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E70" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F70" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G70" t="s">
         <v>232</v>
       </c>
       <c r="H70" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="I70" t="s">
         <v>78</v>
@@ -9236,7 +9242,7 @@
         <v>159</v>
       </c>
       <c r="L70" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M70" t="s">
         <v>140</v>
@@ -9278,36 +9284,36 @@
         <v>236</v>
       </c>
       <c r="AJ70" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AK70" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="71" spans="1:38">
       <c r="A71" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B71" t="s">
         <v>131</v>
       </c>
       <c r="C71" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D71" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E71" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F71" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G71" t="s">
         <v>232</v>
       </c>
       <c r="H71" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I71" t="s">
         <v>78</v>
@@ -9319,7 +9325,7 @@
         <v>159</v>
       </c>
       <c r="L71" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M71" t="s">
         <v>140</v>
@@ -9343,7 +9349,7 @@
         <v>32</v>
       </c>
       <c r="T71" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="U71" t="n">
         <v>0</v>
@@ -9362,19 +9368,19 @@
         <v>0</v>
       </c>
       <c r="AA71" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AB71" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AC71" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AD71" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AE71" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AF71" t="s">
         <v>40</v>
@@ -9387,34 +9393,34 @@
         <v>236</v>
       </c>
       <c r="AJ71" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AK71" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="72" spans="1:38">
       <c r="A72" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B72" t="s">
         <v>198</v>
       </c>
       <c r="C72" t="s"/>
       <c r="D72" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E72" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F72" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G72" t="s">
         <v>64</v>
       </c>
       <c r="H72" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I72" t="s">
         <v>78</v>
@@ -9442,13 +9448,13 @@
         <v>36</v>
       </c>
       <c r="AB72" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AC72" t="s">
         <v>221</v>
       </c>
       <c r="AD72" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AE72" t="s">
         <v>62</v>
@@ -9466,36 +9472,36 @@
         <v>67</v>
       </c>
       <c r="AJ72" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AK72" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="73" spans="1:38">
       <c r="A73" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B73" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C73" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D73" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E73" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F73" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G73" t="s">
         <v>232</v>
       </c>
       <c r="H73" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="I73" t="s">
         <v>78</v>
@@ -9507,10 +9513,10 @@
         <v>159</v>
       </c>
       <c r="L73" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M73" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N73" t="s">
         <v>140</v>
@@ -9559,36 +9565,36 @@
         <v>236</v>
       </c>
       <c r="AJ73" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AK73" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="74" spans="1:38">
       <c r="A74" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B74" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C74" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D74" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E74" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F74" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G74" t="s">
         <v>232</v>
       </c>
       <c r="H74" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="I74" t="s">
         <v>78</v>
@@ -9600,10 +9606,10 @@
         <v>159</v>
       </c>
       <c r="L74" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M74" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N74" t="s">
         <v>140</v>
@@ -9632,10 +9638,10 @@
         <v>80</v>
       </c>
       <c r="AB74" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AC74" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AD74" t="s"/>
       <c r="AE74" t="s">
@@ -9654,36 +9660,36 @@
         <v>236</v>
       </c>
       <c r="AJ74" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AK74" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="75" spans="1:38">
       <c r="A75" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B75" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C75" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D75" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E75" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F75" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G75" t="s">
         <v>232</v>
       </c>
       <c r="H75" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="I75" t="s">
         <v>78</v>
@@ -9695,10 +9701,10 @@
         <v>159</v>
       </c>
       <c r="L75" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M75" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N75" t="s">
         <v>140</v>
@@ -9727,10 +9733,10 @@
         <v>80</v>
       </c>
       <c r="AB75" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AC75" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AD75" t="s"/>
       <c r="AE75" t="s">
@@ -9747,36 +9753,36 @@
         <v>236</v>
       </c>
       <c r="AJ75" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AK75" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="76" spans="1:38">
       <c r="A76" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B76" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C76" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D76" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E76" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F76" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G76" t="s">
         <v>232</v>
       </c>
       <c r="H76" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I76" t="s">
         <v>78</v>
@@ -9788,10 +9794,10 @@
         <v>159</v>
       </c>
       <c r="L76" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M76" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N76" t="s">
         <v>140</v>
@@ -9820,10 +9826,10 @@
         <v>80</v>
       </c>
       <c r="AB76" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AC76" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AD76" t="s"/>
       <c r="AE76" t="s">
@@ -9840,36 +9846,36 @@
         <v>236</v>
       </c>
       <c r="AJ76" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AK76" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="77" spans="1:38">
       <c r="A77" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B77" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C77" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D77" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E77" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F77" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G77" t="s">
         <v>232</v>
       </c>
       <c r="H77" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="I77" t="s">
         <v>78</v>
@@ -9881,10 +9887,10 @@
         <v>159</v>
       </c>
       <c r="L77" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M77" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N77" t="s">
         <v>140</v>
@@ -9913,10 +9919,10 @@
         <v>80</v>
       </c>
       <c r="AB77" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AC77" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AD77" t="s"/>
       <c r="AE77" t="s">
@@ -9933,36 +9939,36 @@
         <v>236</v>
       </c>
       <c r="AJ77" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AK77" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="78" spans="1:38">
       <c r="A78" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B78" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C78" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D78" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E78" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F78" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G78" t="s">
         <v>232</v>
       </c>
       <c r="H78" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I78" t="s">
         <v>78</v>
@@ -9974,10 +9980,10 @@
         <v>159</v>
       </c>
       <c r="L78" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M78" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N78" t="s">
         <v>140</v>
@@ -10006,10 +10012,10 @@
         <v>80</v>
       </c>
       <c r="AB78" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AC78" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AD78" t="s"/>
       <c r="AE78" t="s">
@@ -10026,36 +10032,36 @@
         <v>236</v>
       </c>
       <c r="AJ78" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AK78" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="79" spans="1:38">
       <c r="A79" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B79" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C79" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D79" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E79" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F79" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G79" t="s">
         <v>232</v>
       </c>
       <c r="H79" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="I79" t="s">
         <v>78</v>
@@ -10067,10 +10073,10 @@
         <v>159</v>
       </c>
       <c r="L79" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M79" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N79" t="s">
         <v>140</v>
@@ -10099,10 +10105,10 @@
         <v>80</v>
       </c>
       <c r="AB79" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AC79" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AD79" t="s"/>
       <c r="AE79" t="s">
@@ -10121,36 +10127,36 @@
         <v>236</v>
       </c>
       <c r="AJ79" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AK79" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="80" spans="1:38">
       <c r="A80" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B80" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C80" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D80" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E80" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F80" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G80" t="s">
         <v>232</v>
       </c>
       <c r="H80" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I80" t="s">
         <v>78</v>
@@ -10162,10 +10168,10 @@
         <v>159</v>
       </c>
       <c r="L80" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M80" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N80" t="s">
         <v>140</v>
@@ -10194,10 +10200,10 @@
         <v>80</v>
       </c>
       <c r="AB80" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AC80" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AD80" t="s"/>
       <c r="AE80" t="s">
@@ -10214,36 +10220,36 @@
         <v>236</v>
       </c>
       <c r="AJ80" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AK80" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="81" spans="1:38">
       <c r="A81" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B81" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C81" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D81" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E81" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F81" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G81" t="s">
         <v>232</v>
       </c>
       <c r="H81" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="I81" t="s">
         <v>78</v>
@@ -10255,7 +10261,7 @@
         <v>261</v>
       </c>
       <c r="L81" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M81" t="s">
         <v>140</v>
@@ -10287,10 +10293,10 @@
         <v>80</v>
       </c>
       <c r="AB81" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AC81" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AD81" t="s"/>
       <c r="AE81" t="s">
@@ -10307,36 +10313,36 @@
         <v>236</v>
       </c>
       <c r="AJ81" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AK81" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="82" spans="1:38">
       <c r="A82" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B82" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C82" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D82" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E82" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F82" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G82" t="s">
         <v>232</v>
       </c>
       <c r="H82" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="I82" t="s">
         <v>78</v>
@@ -10348,7 +10354,7 @@
         <v>261</v>
       </c>
       <c r="L82" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M82" t="s">
         <v>140</v>
@@ -10380,10 +10386,10 @@
         <v>80</v>
       </c>
       <c r="AB82" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AC82" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AD82" t="s"/>
       <c r="AE82" t="s">
@@ -10402,36 +10408,36 @@
         <v>236</v>
       </c>
       <c r="AJ82" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AK82" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="83" spans="1:38">
       <c r="A83" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B83" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C83" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D83" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E83" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F83" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G83" t="s">
         <v>232</v>
       </c>
       <c r="H83" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="I83" t="s">
         <v>78</v>
@@ -10443,7 +10449,7 @@
         <v>261</v>
       </c>
       <c r="L83" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M83" t="s">
         <v>140</v>
@@ -10475,10 +10481,10 @@
         <v>80</v>
       </c>
       <c r="AB83" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AC83" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AD83" t="s"/>
       <c r="AE83" t="s">
@@ -10495,36 +10501,36 @@
         <v>236</v>
       </c>
       <c r="AJ83" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AK83" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="84" spans="1:38">
       <c r="A84" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B84" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C84" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D84" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E84" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F84" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G84" t="s">
         <v>232</v>
       </c>
       <c r="H84" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I84" t="s">
         <v>78</v>
@@ -10536,7 +10542,7 @@
         <v>261</v>
       </c>
       <c r="L84" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M84" t="s">
         <v>140</v>
@@ -10568,10 +10574,10 @@
         <v>80</v>
       </c>
       <c r="AB84" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AC84" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AD84" t="s"/>
       <c r="AE84" t="s">
@@ -10588,36 +10594,36 @@
         <v>236</v>
       </c>
       <c r="AJ84" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AK84" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="85" spans="1:38">
       <c r="A85" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B85" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C85" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D85" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E85" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F85" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G85" t="s">
         <v>232</v>
       </c>
       <c r="H85" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="I85" t="s">
         <v>78</v>
@@ -10629,7 +10635,7 @@
         <v>261</v>
       </c>
       <c r="L85" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M85" t="s">
         <v>140</v>
@@ -10661,10 +10667,10 @@
         <v>80</v>
       </c>
       <c r="AB85" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AC85" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AD85" t="s"/>
       <c r="AE85" t="s">
@@ -10681,36 +10687,36 @@
         <v>236</v>
       </c>
       <c r="AJ85" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AK85" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="86" spans="1:38">
       <c r="A86" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B86" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C86" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D86" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E86" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F86" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G86" t="s">
         <v>232</v>
       </c>
       <c r="H86" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I86" t="s">
         <v>78</v>
@@ -10722,7 +10728,7 @@
         <v>261</v>
       </c>
       <c r="L86" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M86" t="s">
         <v>140</v>
@@ -10754,10 +10760,10 @@
         <v>80</v>
       </c>
       <c r="AB86" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AC86" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AD86" t="s"/>
       <c r="AE86" t="s">
@@ -10774,36 +10780,36 @@
         <v>236</v>
       </c>
       <c r="AJ86" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AK86" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="87" spans="1:38">
       <c r="A87" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B87" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C87" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D87" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E87" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F87" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G87" t="s">
         <v>232</v>
       </c>
       <c r="H87" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="I87" t="s">
         <v>78</v>
@@ -10815,7 +10821,7 @@
         <v>261</v>
       </c>
       <c r="L87" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M87" t="s">
         <v>140</v>
@@ -10847,10 +10853,10 @@
         <v>80</v>
       </c>
       <c r="AB87" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AC87" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AD87" t="s"/>
       <c r="AE87" t="s">
@@ -10869,36 +10875,36 @@
         <v>236</v>
       </c>
       <c r="AJ87" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AK87" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="88" spans="1:38">
       <c r="A88" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B88" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C88" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D88" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E88" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F88" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G88" t="s">
         <v>232</v>
       </c>
       <c r="H88" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I88" t="s">
         <v>78</v>
@@ -10910,7 +10916,7 @@
         <v>261</v>
       </c>
       <c r="L88" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M88" t="s">
         <v>140</v>
@@ -10942,10 +10948,10 @@
         <v>80</v>
       </c>
       <c r="AB88" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AC88" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AD88" t="s"/>
       <c r="AE88" t="s">
@@ -10962,30 +10968,30 @@
         <v>236</v>
       </c>
       <c r="AJ88" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AK88" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="89" spans="1:38">
       <c r="A89" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B89" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C89" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D89" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E89" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F89" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G89" t="s">
         <v>218</v>
@@ -10999,7 +11005,7 @@
         <v>261</v>
       </c>
       <c r="L89" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="M89" t="s"/>
       <c r="N89" t="s">
@@ -11029,16 +11035,16 @@
         <v>36</v>
       </c>
       <c r="AB89" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AC89" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AD89" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AE89" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AF89" t="s">
         <v>40</v>
@@ -11052,27 +11058,27 @@
       </c>
       <c r="AJ89" t="s"/>
       <c r="AK89" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="90" spans="1:38">
       <c r="A90" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B90" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C90" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D90" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E90" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F90" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G90" t="s">
         <v>240</v>
@@ -11086,7 +11092,7 @@
         <v>261</v>
       </c>
       <c r="L90" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="M90" t="s"/>
       <c r="N90" t="s">
@@ -11119,13 +11125,13 @@
         <v>339</v>
       </c>
       <c r="AC90" t="s">
+        <v>542</v>
+      </c>
+      <c r="AD90" t="s">
         <v>540</v>
       </c>
-      <c r="AD90" t="s">
-        <v>538</v>
-      </c>
       <c r="AE90" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AF90" t="s">
         <v>40</v>
@@ -11139,27 +11145,27 @@
       </c>
       <c r="AJ90" t="s"/>
       <c r="AK90" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="91" spans="1:38">
       <c r="A91" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B91" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C91" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D91" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E91" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F91" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G91" t="s">
         <v>51</v>
@@ -11173,7 +11179,7 @@
         <v>261</v>
       </c>
       <c r="L91" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="M91" t="s"/>
       <c r="N91" t="s">
@@ -11203,16 +11209,16 @@
         <v>36</v>
       </c>
       <c r="AB91" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AC91" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AD91" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AE91" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AF91" t="s">
         <v>40</v>
@@ -11226,33 +11232,33 @@
       </c>
       <c r="AJ91" t="s"/>
       <c r="AK91" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="92" spans="1:38">
       <c r="A92" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B92" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C92" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D92" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E92" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F92" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G92" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H92" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="I92" t="s">
         <v>78</v>
@@ -11264,10 +11270,10 @@
         <v>159</v>
       </c>
       <c r="L92" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="M92" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N92" t="s">
         <v>140</v>
@@ -11300,13 +11306,13 @@
         <v>80</v>
       </c>
       <c r="AB92" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AC92" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AD92" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AE92" t="s">
         <v>207</v>
@@ -11319,39 +11325,39 @@
         <v>42</v>
       </c>
       <c r="AI92" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AJ92" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AK92" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="93" spans="1:38">
       <c r="A93" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B93" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C93" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D93" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E93" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F93" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G93" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H93" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="I93" t="s">
         <v>78</v>
@@ -11363,10 +11369,10 @@
         <v>159</v>
       </c>
       <c r="L93" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="M93" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N93" t="s">
         <v>140</v>
@@ -11399,13 +11405,13 @@
         <v>80</v>
       </c>
       <c r="AB93" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AC93" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AD93" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AE93" t="s">
         <v>207</v>
@@ -11418,39 +11424,39 @@
         <v>42</v>
       </c>
       <c r="AI93" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AJ93" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AK93" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="94" spans="1:38">
       <c r="A94" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B94" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C94" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D94" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E94" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F94" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G94" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H94" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="I94" t="s">
         <v>78</v>
@@ -11462,7 +11468,7 @@
         <v>261</v>
       </c>
       <c r="L94" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M94" t="s">
         <v>140</v>
@@ -11495,16 +11501,16 @@
       <c r="Y94" t="s"/>
       <c r="Z94" t="s"/>
       <c r="AA94" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AB94" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AC94" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AD94" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AE94" t="s">
         <v>207</v>
@@ -11517,39 +11523,39 @@
         <v>42</v>
       </c>
       <c r="AI94" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AJ94" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AK94" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="95" spans="1:38">
       <c r="A95" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B95" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C95" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D95" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E95" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F95" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G95" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H95" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="I95" t="s">
         <v>78</v>
@@ -11561,7 +11567,7 @@
         <v>261</v>
       </c>
       <c r="L95" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M95" t="s">
         <v>140</v>
@@ -11594,16 +11600,16 @@
       <c r="Y95" t="s"/>
       <c r="Z95" t="s"/>
       <c r="AA95" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AB95" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AC95" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AD95" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AE95" t="s">
         <v>207</v>
@@ -11616,13 +11622,13 @@
         <v>42</v>
       </c>
       <c r="AI95" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AJ95" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AK95" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
